--- a/public/Users List.xlsx
+++ b/public/Users List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nationalwestern.sharepoint.com/Shared Documents/810 - Capital Fund Raising Campaign/Donor Approvals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NW26\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{795CE4D5-1F2C-4037-9EC2-9F4381600DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE10F95A-1DF4-4C56-AFBC-3355468BAECC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6CF959-F968-43CB-8AD9-F2530FEDC54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -5424,7 +5423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5555,11 +5554,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5574,50 +5573,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5847,22 +5846,22 @@
   </sheetPr>
   <dimension ref="A1:Z732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D425" sqref="D425:D427"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="12.7109375" style="2"/>
+    <col min="5" max="5" width="37.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.45">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -5872,10 +5871,10 @@
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:24" ht="14.45">
+    <row r="2" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
@@ -5886,7 +5885,7 @@
       </c>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:24" ht="14.45">
+    <row r="4" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -5924,7 +5923,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>824</v>
       </c>
@@ -5940,7 +5939,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -5976,7 +5975,7 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>228</v>
       </c>
@@ -5994,7 +5993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>712</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>884</v>
       </c>
@@ -6028,7 +6027,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>1008</v>
       </c>
@@ -6044,7 +6043,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>1009</v>
       </c>
@@ -6060,7 +6059,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>1010</v>
       </c>
@@ -6076,7 +6075,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>1011</v>
       </c>
@@ -6092,7 +6091,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>1012</v>
       </c>
@@ -6108,7 +6107,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>1013</v>
       </c>
@@ -6124,7 +6123,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>1014</v>
       </c>
@@ -6140,7 +6139,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>1015</v>
       </c>
@@ -6156,7 +6155,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>1016</v>
       </c>
@@ -6172,7 +6171,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:24" ht="14.45">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>1017</v>
       </c>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:24" ht="14.45">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>1018</v>
       </c>
@@ -6204,7 +6203,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:24" ht="14.45">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>1019</v>
       </c>
@@ -6220,7 +6219,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:24" ht="14.45">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>1020</v>
       </c>
@@ -6236,7 +6235,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:24" ht="14.45">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>1021</v>
       </c>
@@ -6252,7 +6251,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:24" ht="14.45">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>1022</v>
       </c>
@@ -6268,7 +6267,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:24" ht="14.45">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>1621</v>
       </c>
@@ -6285,7 +6284,7 @@
       <c r="F25" s="8"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:24" ht="14.45">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>582</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="14.45">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>587</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="14.45">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>798</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="14.45">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>1579</v>
       </c>
@@ -6375,7 +6374,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
     </row>
-    <row r="30" spans="1:24" ht="14.45">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>1818</v>
       </c>
@@ -6392,7 +6391,7 @@
       <c r="F30" s="8"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:24" ht="14.45">
+    <row r="31" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>1908</v>
       </c>
@@ -6411,7 +6410,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:24" ht="14.45">
+    <row r="32" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>2193</v>
       </c>
@@ -6447,7 +6446,7 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
     </row>
-    <row r="33" spans="1:24" ht="14.45">
+    <row r="33" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>80</v>
       </c>
@@ -6463,7 +6462,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:24" ht="14.45">
+    <row r="34" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>143</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="14.45">
+    <row r="35" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>160</v>
       </c>
@@ -6497,7 +6496,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:24" ht="14.45">
+    <row r="36" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>180</v>
       </c>
@@ -6513,7 +6512,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:24" ht="14.45">
+    <row r="37" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>182</v>
       </c>
@@ -6529,7 +6528,7 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:24" ht="14.45">
+    <row r="38" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>187</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="14.45">
+    <row r="39" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>193</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="7" customFormat="1" ht="14.45">
+    <row r="40" spans="1:24" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>207</v>
       </c>
@@ -6601,7 +6600,7 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" s="7" customFormat="1" ht="14.45">
+    <row r="41" spans="1:24" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>213</v>
       </c>
@@ -6635,7 +6634,7 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" s="7" customFormat="1" ht="14.45">
+    <row r="42" spans="1:24" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>245</v>
       </c>
@@ -6669,7 +6668,7 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" s="7" customFormat="1" ht="14.45">
+    <row r="43" spans="1:24" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>271</v>
       </c>
@@ -6705,7 +6704,7 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" s="7" customFormat="1" ht="14.45">
+    <row r="44" spans="1:24" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>277</v>
       </c>
@@ -6741,7 +6740,7 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" s="7" customFormat="1" ht="14.45">
+    <row r="45" spans="1:24" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>298</v>
       </c>
@@ -6775,7 +6774,7 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="14.45">
+    <row r="46" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>459</v>
       </c>
@@ -6793,7 +6792,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="14.45">
+    <row r="47" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>474</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="14.45">
+    <row r="48" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>641</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.45">
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>650</v>
       </c>
@@ -6845,7 +6844,7 @@
       </c>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="14.45">
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>651</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.45">
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>674</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.45">
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>675</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.45">
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>682</v>
       </c>
@@ -6915,7 +6914,7 @@
       </c>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="14.45">
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>806</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.45">
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>896</v>
       </c>
@@ -6951,7 +6950,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.45">
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>897</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.45">
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>898</v>
       </c>
@@ -6985,7 +6984,7 @@
       </c>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="14.45">
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>899</v>
       </c>
@@ -7001,7 +7000,7 @@
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="14.45">
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>902</v>
       </c>
@@ -7017,7 +7016,7 @@
       </c>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="14.45">
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>997</v>
       </c>
@@ -7033,7 +7032,7 @@
       </c>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="14.45">
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>1023</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.45">
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>1024</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.45">
+    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>1025</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.45">
+    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>1026</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.45">
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>1027</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.45">
+    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>1028</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.45">
+    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>1029</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.45">
+    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>1030</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.45">
+    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>1054</v>
       </c>
@@ -7193,7 +7192,7 @@
       </c>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:8" ht="14.45">
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>1055</v>
       </c>
@@ -7209,7 +7208,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:8" ht="14.45">
+    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>1060</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.45">
+    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>1061</v>
       </c>
@@ -7245,7 +7244,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.45">
+    <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>1066</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.45">
+    <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>1067</v>
       </c>
@@ -7279,7 +7278,7 @@
       </c>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:8" ht="14.45">
+    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>1072</v>
       </c>
@@ -7295,7 +7294,7 @@
       </c>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:8" ht="14.45">
+    <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>1073</v>
       </c>
@@ -7311,7 +7310,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:8" ht="14.45">
+    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>1076</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.45">
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>1078</v>
       </c>
@@ -7345,7 +7344,7 @@
       </c>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:8" ht="14.45">
+    <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>1079</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.45">
+    <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>1227</v>
       </c>
@@ -7382,7 +7381,7 @@
       </c>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:24" ht="14.45">
+    <row r="81" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>1523</v>
       </c>
@@ -7399,7 +7398,7 @@
       <c r="F81" s="8"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:24" ht="14.45">
+    <row r="82" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>1524</v>
       </c>
@@ -7416,7 +7415,7 @@
       <c r="F82" s="8"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:24" ht="14.45">
+    <row r="83" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>1531</v>
       </c>
@@ -7433,7 +7432,7 @@
       <c r="F83" s="8"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:24" ht="14.45">
+    <row r="84" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>1532</v>
       </c>
@@ -7452,7 +7451,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:24" ht="14.45">
+    <row r="85" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>1544</v>
       </c>
@@ -7471,7 +7470,7 @@
       </c>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:24" ht="14.45">
+    <row r="86" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>1584</v>
       </c>
@@ -7490,7 +7489,7 @@
       </c>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:24" ht="14.45">
+    <row r="87" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>1734</v>
       </c>
@@ -7509,7 +7508,7 @@
       </c>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:24" ht="14.45">
+    <row r="88" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>206</v>
       </c>
@@ -7543,7 +7542,7 @@
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
     </row>
-    <row r="89" spans="1:24" ht="14.45">
+    <row r="89" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>1</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="14.45">
+    <row r="90" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>13</v>
       </c>
@@ -7577,7 +7576,7 @@
       </c>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:24" ht="14.45">
+    <row r="91" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>26</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="14.45">
+    <row r="92" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>78</v>
       </c>
@@ -7613,7 +7612,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="14.45">
+    <row r="93" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>156</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="14.45">
+    <row r="94" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>173</v>
       </c>
@@ -7647,7 +7646,7 @@
       </c>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:24" ht="14.45">
+    <row r="95" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>176</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="14.45">
+    <row r="96" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>210</v>
       </c>
@@ -7683,7 +7682,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.45">
+    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>210</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.45">
+    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>212</v>
       </c>
@@ -7719,7 +7718,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.45">
+    <row r="99" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>225</v>
       </c>
@@ -7735,7 +7734,7 @@
       </c>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="14.45">
+    <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>247</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.45">
+    <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>250</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.45">
+    <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>278</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.45">
+    <row r="103" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>308</v>
       </c>
@@ -7807,7 +7806,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.45">
+    <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>335</v>
       </c>
@@ -7823,7 +7822,7 @@
       </c>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="14.45">
+    <row r="105" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>341</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.45">
+    <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>395</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.45">
+    <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>402</v>
       </c>
@@ -7875,7 +7874,7 @@
       </c>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="14.45">
+    <row r="108" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>424</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.45">
+    <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>442</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.45">
+    <row r="110" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>568</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.45">
+    <row r="111" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>573</v>
       </c>
@@ -7945,7 +7944,7 @@
       </c>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" ht="14.45">
+    <row r="112" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>598</v>
       </c>
@@ -7963,7 +7962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.45">
+    <row r="113" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>623</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.45">
+    <row r="114" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>703</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.45">
+    <row r="115" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>709</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.45">
+    <row r="116" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>710</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.45">
+    <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>711</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.45">
+    <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>722</v>
       </c>
@@ -8071,7 +8070,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.45">
+    <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>739</v>
       </c>
@@ -8087,7 +8086,7 @@
       </c>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="14.45">
+    <row r="120" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>740</v>
       </c>
@@ -8103,7 +8102,7 @@
       </c>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="14.45">
+    <row r="121" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>760</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.45">
+    <row r="122" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>859</v>
       </c>
@@ -8139,7 +8138,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.45">
+    <row r="123" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>1000</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.45">
+    <row r="124" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>1001</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.45">
+    <row r="125" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>1002</v>
       </c>
@@ -8191,7 +8190,7 @@
       </c>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="14.45">
+    <row r="126" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>1003</v>
       </c>
@@ -8207,7 +8206,7 @@
       </c>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="14.45">
+    <row r="127" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>1004</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.45">
+    <row r="128" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>1031</v>
       </c>
@@ -8241,7 +8240,7 @@
       </c>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:8" ht="14.45">
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <v>1032</v>
       </c>
@@ -8257,7 +8256,7 @@
       </c>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:8" ht="14.45">
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <v>1033</v>
       </c>
@@ -8273,7 +8272,7 @@
       </c>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:8" ht="14.45">
+    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <v>1034</v>
       </c>
@@ -8289,7 +8288,7 @@
       </c>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:8" ht="14.45">
+    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>1035</v>
       </c>
@@ -8305,7 +8304,7 @@
       </c>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:8" ht="14.45">
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <v>1036</v>
       </c>
@@ -8321,7 +8320,7 @@
       </c>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:8" ht="14.45">
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>1046</v>
       </c>
@@ -8337,7 +8336,7 @@
       </c>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:8" ht="14.45">
+    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>1047</v>
       </c>
@@ -8353,7 +8352,7 @@
       </c>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:8" ht="14.45">
+    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>1048</v>
       </c>
@@ -8369,7 +8368,7 @@
       </c>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:8" ht="14.45">
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>1049</v>
       </c>
@@ -8385,7 +8384,7 @@
       </c>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:8" ht="14.45">
+    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <v>1166</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.45">
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
         <v>1170</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.45">
+    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>1195</v>
       </c>
@@ -8440,7 +8439,7 @@
       </c>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" ht="14.45">
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>1214</v>
       </c>
@@ -8459,7 +8458,7 @@
       </c>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" ht="14.45">
+    <row r="142" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>1217</v>
       </c>
@@ -8478,7 +8477,7 @@
       </c>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" ht="14.45">
+    <row r="143" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>1435</v>
       </c>
@@ -8493,7 +8492,7 @@
       <c r="F143" s="8"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" ht="14.45">
+    <row r="144" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>1450</v>
       </c>
@@ -8512,7 +8511,7 @@
       </c>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:24" ht="14.45">
+    <row r="145" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <v>1490</v>
       </c>
@@ -8529,7 +8528,7 @@
       <c r="F145" s="8"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:24" ht="14.45">
+    <row r="146" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>1627</v>
       </c>
@@ -8546,7 +8545,7 @@
       <c r="F146" s="8"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:24" ht="14.45">
+    <row r="147" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <v>1628</v>
       </c>
@@ -8563,7 +8562,7 @@
       <c r="F147" s="8"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:24" ht="14.45">
+    <row r="148" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
         <v>1629</v>
       </c>
@@ -8580,7 +8579,7 @@
       <c r="F148" s="8"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:24" ht="14.45">
+    <row r="149" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>1654</v>
       </c>
@@ -8599,7 +8598,7 @@
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:24" ht="14.45">
+    <row r="150" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>1920</v>
       </c>
@@ -8635,7 +8634,7 @@
       <c r="W150" s="6"/>
       <c r="X150" s="6"/>
     </row>
-    <row r="151" spans="1:24" ht="14.45">
+    <row r="151" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>366</v>
       </c>
@@ -8669,7 +8668,7 @@
       <c r="W151" s="6"/>
       <c r="X151" s="6"/>
     </row>
-    <row r="152" spans="1:24" ht="14.45">
+    <row r="152" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>368</v>
       </c>
@@ -8703,7 +8702,7 @@
       <c r="W152" s="6"/>
       <c r="X152" s="6"/>
     </row>
-    <row r="153" spans="1:24" ht="14.45">
+    <row r="153" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
         <v>370</v>
       </c>
@@ -8737,7 +8736,7 @@
       <c r="W153" s="6"/>
       <c r="X153" s="6"/>
     </row>
-    <row r="154" spans="1:24" ht="14.45">
+    <row r="154" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
         <v>14</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="14.45">
+    <row r="155" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>25</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="14.45">
+    <row r="156" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>70</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="14.45">
+    <row r="157" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
         <v>76</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="14.45">
+    <row r="158" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>124</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="14.45">
+    <row r="159" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>148</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="14.45">
+    <row r="160" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>155</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="14.45">
+    <row r="161" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>165</v>
       </c>
@@ -8879,7 +8878,7 @@
       </c>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" ht="14.45">
+    <row r="162" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <v>167</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="14.45">
+    <row r="163" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>190</v>
       </c>
@@ -8915,7 +8914,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="14.45">
+    <row r="164" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
         <v>192</v>
       </c>
@@ -8931,7 +8930,7 @@
       </c>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" ht="14.45">
+    <row r="165" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
         <v>194</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="14.45">
+    <row r="166" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
         <v>204</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="14.45">
+    <row r="167" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
         <v>220</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="14.45">
+    <row r="168" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>221</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="14.45">
+    <row r="169" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
         <v>233</v>
       </c>
@@ -9021,7 +9020,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="14.45">
+    <row r="170" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>238</v>
       </c>
@@ -9037,7 +9036,7 @@
       </c>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" ht="14.45">
+    <row r="171" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
         <v>240</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="14.45">
+    <row r="172" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>241</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="14.45">
+    <row r="173" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>244</v>
       </c>
@@ -9087,7 +9086,7 @@
       </c>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" ht="14.45">
+    <row r="174" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>246</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14.45">
+    <row r="175" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
         <v>259</v>
       </c>
@@ -9121,7 +9120,7 @@
       </c>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="14.45">
+    <row r="176" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
         <v>270</v>
       </c>
@@ -9139,7 +9138,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="14.45">
+    <row r="177" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>293</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="14.45">
+    <row r="178" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>309</v>
       </c>
@@ -9173,7 +9172,7 @@
       </c>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="14.45">
+    <row r="179" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
         <v>311</v>
       </c>
@@ -9189,7 +9188,7 @@
       </c>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="14.45">
+    <row r="180" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>351</v>
       </c>
@@ -9207,7 +9206,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="14.45">
+    <row r="181" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>352</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.45">
+    <row r="182" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="15">
         <v>354</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="14.45">
+    <row r="183" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
         <v>375</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="14.45">
+    <row r="184" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="15">
         <v>396</v>
       </c>
@@ -9277,7 +9276,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.45">
+    <row r="185" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>425</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="14.45">
+    <row r="186" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>483</v>
       </c>
@@ -9311,7 +9310,7 @@
       </c>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="14.45">
+    <row r="187" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>563</v>
       </c>
@@ -9329,7 +9328,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="14.45">
+    <row r="188" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="15">
         <v>565</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="14.45">
+    <row r="189" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>570</v>
       </c>
@@ -9363,7 +9362,7 @@
       </c>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" ht="14.45">
+    <row r="190" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>576</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="14.45">
+    <row r="191" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>578</v>
       </c>
@@ -9397,7 +9396,7 @@
       </c>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" ht="14.45">
+    <row r="192" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="15">
         <v>596</v>
       </c>
@@ -9413,7 +9412,7 @@
       </c>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="14.45">
+    <row r="193" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <v>618</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.45">
+    <row r="194" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="15">
         <v>660</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.45">
+    <row r="195" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="15">
         <v>662</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="14.45">
+    <row r="196" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <v>708</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="14.45">
+    <row r="197" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="15">
         <v>752</v>
       </c>
@@ -9501,7 +9500,7 @@
       </c>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" ht="14.45">
+    <row r="198" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>753</v>
       </c>
@@ -9517,7 +9516,7 @@
       </c>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="14.45">
+    <row r="199" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="15">
         <v>782</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="14.45">
+    <row r="200" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <v>920</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="14.45">
+    <row r="201" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <v>923</v>
       </c>
@@ -9571,7 +9570,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="14.45">
+    <row r="202" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <v>951</v>
       </c>
@@ -9587,7 +9586,7 @@
       </c>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" ht="14.45">
+    <row r="203" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="15">
         <v>952</v>
       </c>
@@ -9603,7 +9602,7 @@
       </c>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" ht="14.45">
+    <row r="204" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="15">
         <v>977</v>
       </c>
@@ -9619,7 +9618,7 @@
       </c>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" ht="14.45">
+    <row r="205" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="15">
         <v>981</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="14.45">
+    <row r="206" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <v>982</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.45">
+    <row r="207" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <v>1050</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="14.45">
+    <row r="208" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="15">
         <v>1064</v>
       </c>
@@ -9689,7 +9688,7 @@
       </c>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:8" ht="14.45">
+    <row r="209" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <v>1065</v>
       </c>
@@ -9705,7 +9704,7 @@
       </c>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:8" ht="14.45">
+    <row r="210" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <v>1070</v>
       </c>
@@ -9721,7 +9720,7 @@
       </c>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:8" ht="14.45">
+    <row r="211" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="15">
         <v>1071</v>
       </c>
@@ -9737,7 +9736,7 @@
       </c>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:8" ht="14.45">
+    <row r="212" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <v>1074</v>
       </c>
@@ -9753,7 +9752,7 @@
       </c>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:8" ht="14.45">
+    <row r="213" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <v>1075</v>
       </c>
@@ -9771,7 +9770,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.45">
+    <row r="214" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="15">
         <v>1136</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.45">
+    <row r="215" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="15">
         <v>1178</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="14.45">
+    <row r="216" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <v>1202</v>
       </c>
@@ -9826,7 +9825,7 @@
       </c>
       <c r="H216" s="3"/>
     </row>
-    <row r="217" spans="1:8" ht="14.45">
+    <row r="217" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A217" s="15">
         <v>1203</v>
       </c>
@@ -9845,7 +9844,7 @@
       </c>
       <c r="H217" s="3"/>
     </row>
-    <row r="218" spans="1:8" ht="14.45">
+    <row r="218" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A218" s="15">
         <v>1204</v>
       </c>
@@ -9864,7 +9863,7 @@
       </c>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" spans="1:8" ht="14.45">
+    <row r="219" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <v>1415</v>
       </c>
@@ -9883,7 +9882,7 @@
       </c>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" spans="1:8" ht="14.45">
+    <row r="220" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A220" s="15">
         <v>1440</v>
       </c>
@@ -9900,7 +9899,7 @@
       <c r="F220" s="8"/>
       <c r="H220" s="3"/>
     </row>
-    <row r="221" spans="1:8" ht="14.45">
+    <row r="221" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="15">
         <v>1441</v>
       </c>
@@ -9917,7 +9916,7 @@
       <c r="F221" s="8"/>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="1:8" ht="14.45">
+    <row r="222" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A222" s="15">
         <v>1502</v>
       </c>
@@ -9936,7 +9935,7 @@
       </c>
       <c r="H222" s="3"/>
     </row>
-    <row r="223" spans="1:8" ht="14.45">
+    <row r="223" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
         <v>1534</v>
       </c>
@@ -9955,7 +9954,7 @@
       </c>
       <c r="H223" s="3"/>
     </row>
-    <row r="224" spans="1:8" ht="14.45">
+    <row r="224" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="15">
         <v>1535</v>
       </c>
@@ -9974,7 +9973,7 @@
       </c>
       <c r="H224" s="3"/>
     </row>
-    <row r="225" spans="1:24" ht="14.45">
+    <row r="225" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="15">
         <v>1542</v>
       </c>
@@ -9991,7 +9990,7 @@
       <c r="F225" s="8"/>
       <c r="H225" s="3"/>
     </row>
-    <row r="226" spans="1:24" ht="14.45">
+    <row r="226" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
         <v>1652</v>
       </c>
@@ -10010,7 +10009,7 @@
       </c>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" spans="1:24" ht="14.45">
+    <row r="227" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="15">
         <v>1797</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="F227" s="8"/>
       <c r="H227" s="3"/>
     </row>
-    <row r="228" spans="1:24" ht="14.45">
+    <row r="228" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <v>1798</v>
       </c>
@@ -10044,7 +10043,7 @@
       <c r="F228" s="8"/>
       <c r="H228" s="3"/>
     </row>
-    <row r="229" spans="1:24" ht="14.45">
+    <row r="229" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <v>1799</v>
       </c>
@@ -10061,7 +10060,7 @@
       <c r="F229" s="8"/>
       <c r="H229" s="3"/>
     </row>
-    <row r="230" spans="1:24" ht="14.45">
+    <row r="230" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="15">
         <v>1817</v>
       </c>
@@ -10078,7 +10077,7 @@
       <c r="F230" s="8"/>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="1:24" ht="14.45">
+    <row r="231" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>590</v>
       </c>
@@ -10112,7 +10111,7 @@
       <c r="W231" s="6"/>
       <c r="X231" s="6"/>
     </row>
-    <row r="232" spans="1:24" ht="14.45">
+    <row r="232" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>594</v>
       </c>
@@ -10146,7 +10145,7 @@
       <c r="W232" s="6"/>
       <c r="X232" s="6"/>
     </row>
-    <row r="233" spans="1:24" ht="14.45">
+    <row r="233" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="15" t="s">
         <v>597</v>
       </c>
@@ -10180,7 +10179,7 @@
       <c r="W233" s="6"/>
       <c r="X233" s="6"/>
     </row>
-    <row r="234" spans="1:24" ht="14.45">
+    <row r="234" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>600</v>
       </c>
@@ -10214,7 +10213,7 @@
       <c r="W234" s="6"/>
       <c r="X234" s="6"/>
     </row>
-    <row r="235" spans="1:24" ht="14.45">
+    <row r="235" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="15">
         <v>20</v>
       </c>
@@ -10232,7 +10231,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="14.45">
+    <row r="236" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="15">
         <v>430</v>
       </c>
@@ -10250,7 +10249,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="14.45">
+    <row r="237" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="15">
         <v>432</v>
       </c>
@@ -10266,7 +10265,7 @@
       </c>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:24" ht="14.45">
+    <row r="238" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="15">
         <v>433</v>
       </c>
@@ -10282,7 +10281,7 @@
       </c>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:24" ht="14.45">
+    <row r="239" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A239" s="15">
         <v>517</v>
       </c>
@@ -10298,7 +10297,7 @@
       </c>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:24" ht="14.45">
+    <row r="240" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="15">
         <v>559</v>
       </c>
@@ -10316,7 +10315,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.45">
+    <row r="241" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="15">
         <v>560</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.45">
+    <row r="242" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="15">
         <v>583</v>
       </c>
@@ -10352,7 +10351,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.45">
+    <row r="243" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="15">
         <v>658</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.45">
+    <row r="244" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="15">
         <v>686</v>
       </c>
@@ -10388,7 +10387,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.45">
+    <row r="245" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="15">
         <v>701</v>
       </c>
@@ -10406,7 +10405,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.45">
+    <row r="246" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="15">
         <v>715</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="14.45">
+    <row r="247" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A247" s="15">
         <v>921</v>
       </c>
@@ -10440,7 +10439,7 @@
       </c>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:8" ht="14.45">
+    <row r="248" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A248" s="15">
         <v>922</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="14.45">
+    <row r="249" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="15">
         <v>937</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.45">
+    <row r="250" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="15">
         <v>989</v>
       </c>
@@ -10496,7 +10495,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.45">
+    <row r="251" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="15">
         <v>990</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.45">
+    <row r="252" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="15">
         <v>991</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.45">
+    <row r="253" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="15">
         <v>1183</v>
       </c>
@@ -10548,7 +10547,7 @@
       </c>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:8" ht="14.45">
+    <row r="254" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A254" s="15">
         <v>1206</v>
       </c>
@@ -10567,7 +10566,7 @@
       </c>
       <c r="H254" s="3"/>
     </row>
-    <row r="255" spans="1:8" ht="14.45">
+    <row r="255" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A255" s="15">
         <v>1231</v>
       </c>
@@ -10584,7 +10583,7 @@
       <c r="F255" s="8"/>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="1:8" ht="14.45">
+    <row r="256" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="15">
         <v>1419</v>
       </c>
@@ -10601,7 +10600,7 @@
       <c r="F256" s="8"/>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" spans="1:24" ht="14.45">
+    <row r="257" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="15">
         <v>1528</v>
       </c>
@@ -10620,7 +10619,7 @@
       </c>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="1:24" ht="14.45">
+    <row r="258" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="15">
         <v>1568</v>
       </c>
@@ -10637,7 +10636,7 @@
       <c r="F258" s="8"/>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="1:24" ht="14.45">
+    <row r="259" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A259" s="15">
         <v>1778</v>
       </c>
@@ -10654,7 +10653,7 @@
       <c r="F259" s="8"/>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="1:24" ht="14.45">
+    <row r="260" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A260" s="15">
         <v>1904</v>
       </c>
@@ -10673,7 +10672,7 @@
       </c>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="1:24" ht="14.45">
+    <row r="261" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="15">
         <v>2055</v>
       </c>
@@ -10709,7 +10708,7 @@
       <c r="W261" s="6"/>
       <c r="X261" s="6"/>
     </row>
-    <row r="262" spans="1:24" ht="14.45">
+    <row r="262" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="15">
         <v>2217</v>
       </c>
@@ -10745,7 +10744,7 @@
       <c r="W262" s="6"/>
       <c r="X262" s="6"/>
     </row>
-    <row r="263" spans="1:24" ht="14.45">
+    <row r="263" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="15">
         <v>431</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="14.45">
+    <row r="264" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="15">
         <v>435</v>
       </c>
@@ -10779,7 +10778,7 @@
       </c>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:24" ht="14.45">
+    <row r="265" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="15">
         <v>439</v>
       </c>
@@ -10795,7 +10794,7 @@
       </c>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:24" ht="14.45">
+    <row r="266" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A266" s="15">
         <v>697</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="14.45">
+    <row r="267" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="15">
         <v>883</v>
       </c>
@@ -10831,7 +10830,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="14.45">
+    <row r="268" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A268" s="15">
         <v>954</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="14.45">
+    <row r="269" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A269" s="15">
         <v>1207</v>
       </c>
@@ -10866,7 +10865,7 @@
       <c r="F269" s="8"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="1:24" ht="14.45">
+    <row r="270" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A270" s="15">
         <v>579</v>
       </c>
@@ -10902,7 +10901,7 @@
       <c r="W270" s="7"/>
       <c r="X270" s="7"/>
     </row>
-    <row r="271" spans="1:24" ht="14.45">
+    <row r="271" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A271" s="15">
         <v>685</v>
       </c>
@@ -10938,7 +10937,7 @@
       <c r="W271" s="7"/>
       <c r="X271" s="7"/>
     </row>
-    <row r="272" spans="1:24" ht="14.45">
+    <row r="272" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A272" s="15">
         <v>117</v>
       </c>
@@ -10954,7 +10953,7 @@
       </c>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:8" ht="14.45">
+    <row r="273" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A273" s="9">
         <v>276</v>
       </c>
@@ -10972,7 +10971,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.45">
+    <row r="274" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A274" s="9">
         <v>291</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="14.45">
+    <row r="275" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A275" s="15">
         <v>434</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="14.45">
+    <row r="276" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A276" s="15">
         <v>1867</v>
       </c>
@@ -11027,7 +11026,7 @@
       </c>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="1:8" ht="14.45">
+    <row r="277" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A277" s="15">
         <v>202</v>
       </c>
@@ -11045,7 +11044,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="14.45">
+    <row r="278" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A278" s="15">
         <v>15</v>
       </c>
@@ -11061,7 +11060,7 @@
       </c>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:8" ht="14.45">
+    <row r="279" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A279" s="15">
         <v>16</v>
       </c>
@@ -11077,7 +11076,7 @@
       </c>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:8" ht="14.45">
+    <row r="280" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A280" s="15">
         <v>24</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="14.45">
+    <row r="281" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A281" s="15">
         <v>82</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.45">
+    <row r="282" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A282" s="15">
         <v>475</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="14.45">
+    <row r="283" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A283" s="15">
         <v>216</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="14.45">
+    <row r="284" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A284" s="15">
         <v>339</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="14.45">
+    <row r="285" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A285" s="15">
         <v>344</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.45">
+    <row r="286" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A286" s="15">
         <v>416</v>
       </c>
@@ -11201,7 +11200,7 @@
       </c>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:8" ht="14.45">
+    <row r="287" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A287" s="15">
         <v>622</v>
       </c>
@@ -11219,7 +11218,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.45">
+    <row r="288" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A288" s="15">
         <v>664</v>
       </c>
@@ -11235,7 +11234,7 @@
       </c>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:24" ht="14.45">
+    <row r="289" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A289" s="15">
         <v>823</v>
       </c>
@@ -11251,7 +11250,7 @@
       </c>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:24" ht="14.45">
+    <row r="290" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A290" s="15">
         <v>438</v>
       </c>
@@ -11267,7 +11266,7 @@
       </c>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:24" ht="14.45">
+    <row r="291" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A291" s="15">
         <v>891</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="14.45">
+    <row r="292" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A292" s="15">
         <v>580</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="14.45">
+    <row r="293" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A293" s="15">
         <v>586</v>
       </c>
@@ -11319,7 +11318,7 @@
       </c>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:24" ht="14.45">
+    <row r="294" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A294" s="15">
         <v>1174</v>
       </c>
@@ -11335,7 +11334,7 @@
       </c>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:24" ht="14.45">
+    <row r="295" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A295" s="15">
         <v>602</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="14.45">
+    <row r="296" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A296" s="15">
         <v>1190</v>
       </c>
@@ -11371,7 +11370,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="14.45">
+    <row r="297" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A297" s="15">
         <v>1191</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="14.45">
+    <row r="298" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A298" s="15">
         <v>679</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="14.45">
+    <row r="299" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <v>1551</v>
       </c>
@@ -11426,7 +11425,7 @@
       </c>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="1:24" ht="14.45">
+    <row r="300" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
         <v>796</v>
       </c>
@@ -11462,7 +11461,7 @@
       <c r="W300" s="6"/>
       <c r="X300" s="6"/>
     </row>
-    <row r="301" spans="1:24" s="7" customFormat="1" ht="14.45">
+    <row r="301" spans="1:24" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A301" s="15">
         <v>19</v>
       </c>
@@ -11478,7 +11477,7 @@
       </c>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:24" ht="14.45">
+    <row r="302" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A302" s="15">
         <v>22</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="14.45">
+    <row r="303" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A303" s="15">
         <v>23</v>
       </c>
@@ -11512,7 +11511,7 @@
       </c>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:24" ht="14.45">
+    <row r="304" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <v>57</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="14.45">
+    <row r="305" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <v>67</v>
       </c>
@@ -11546,7 +11545,7 @@
       </c>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="14.45">
+    <row r="306" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <v>103</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="14.45">
+    <row r="307" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A307" s="15">
         <v>121</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="7" customFormat="1" ht="14.45">
+    <row r="308" spans="1:6" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A308" s="15">
         <v>200</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="14.45">
+    <row r="309" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A309" s="15">
         <v>208</v>
       </c>
@@ -11616,7 +11615,7 @@
       </c>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" ht="14.45">
+    <row r="310" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <v>224</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="7" customFormat="1" ht="14.45">
+    <row r="311" spans="1:6" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A311" s="15">
         <v>347</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="14.45">
+    <row r="312" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A312" s="15">
         <v>380</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="14.45">
+    <row r="313" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A313" s="15">
         <v>391</v>
       </c>
@@ -11688,7 +11687,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="14.45">
+    <row r="314" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A314" s="15">
         <v>411</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="7" customFormat="1" ht="14.45">
+    <row r="315" spans="1:6" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A315" s="15">
         <v>445</v>
       </c>
@@ -11722,7 +11721,7 @@
       </c>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="14.45">
+    <row r="316" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A316" s="15">
         <v>564</v>
       </c>
@@ -11740,7 +11739,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="14.45">
+    <row r="317" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A317" s="15">
         <v>569</v>
       </c>
@@ -11758,7 +11757,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="14.45">
+    <row r="318" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A318" s="9">
         <v>790</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="14.45">
+    <row r="319" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A319" s="9">
         <v>791</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="14.45">
+    <row r="320" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A320" s="15">
         <v>721</v>
       </c>
@@ -11812,7 +11811,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="14.45">
+    <row r="321" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A321" s="15">
         <v>1062</v>
       </c>
@@ -11828,7 +11827,7 @@
       </c>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:24" ht="14.45">
+    <row r="322" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A322" s="15">
         <v>1063</v>
       </c>
@@ -11844,7 +11843,7 @@
       </c>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:24" ht="14.45">
+    <row r="323" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A323" s="9">
         <v>792</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="14.45">
+    <row r="324" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A324" s="15">
         <v>1167</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="14.45">
+    <row r="325" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A325" s="15">
         <v>1489</v>
       </c>
@@ -11897,7 +11896,7 @@
       <c r="F325" s="8"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="1:24" ht="14.45">
+    <row r="326" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>1496</v>
       </c>
@@ -11916,7 +11915,7 @@
       </c>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="1:24" ht="14.45">
+    <row r="327" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>1520</v>
       </c>
@@ -11935,7 +11934,7 @@
       </c>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="1:24" ht="14.45">
+    <row r="328" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>1644</v>
       </c>
@@ -11952,7 +11951,7 @@
       <c r="F328" s="8"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="1:24" ht="14.45">
+    <row r="329" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A329" s="16" t="s">
         <v>865</v>
       </c>
@@ -11986,7 +11985,7 @@
       <c r="W329" s="6"/>
       <c r="X329" s="6"/>
     </row>
-    <row r="330" spans="1:24" ht="14.45">
+    <row r="330" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>18</v>
       </c>
@@ -12004,7 +12003,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="14.45">
+    <row r="331" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>164</v>
       </c>
@@ -12020,7 +12019,7 @@
       </c>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:24" ht="14.45">
+    <row r="332" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>181</v>
       </c>
@@ -12036,7 +12035,7 @@
       </c>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:24" ht="14.45">
+    <row r="333" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>199</v>
       </c>
@@ -12052,7 +12051,7 @@
       </c>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:24" ht="14.45">
+    <row r="334" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>201</v>
       </c>
@@ -12068,7 +12067,7 @@
       </c>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:24" ht="14.45">
+    <row r="335" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>226</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="14.45">
+    <row r="336" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>227</v>
       </c>
@@ -12102,7 +12101,7 @@
       </c>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" s="7" customFormat="1" ht="14.45">
+    <row r="337" spans="1:6" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>306</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="14.45">
+    <row r="338" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>312</v>
       </c>
@@ -12136,7 +12135,7 @@
       </c>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="14.45">
+    <row r="339" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>330</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="14.45">
+    <row r="340" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>340</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="14.45">
+    <row r="341" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>342</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="14.45">
+    <row r="342" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>451</v>
       </c>
@@ -12208,7 +12207,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="14.45">
+    <row r="343" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A343" s="17">
         <v>794</v>
       </c>
@@ -12226,7 +12225,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="14.45">
+    <row r="344" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>496</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="7" customFormat="1" ht="14.45">
+    <row r="345" spans="1:6" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>684</v>
       </c>
@@ -12260,7 +12259,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="14.45">
+    <row r="346" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>719</v>
       </c>
@@ -12276,7 +12275,7 @@
       </c>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" ht="14.45">
+    <row r="347" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>720</v>
       </c>
@@ -12292,7 +12291,7 @@
       </c>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" ht="14.45">
+    <row r="348" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>854</v>
       </c>
@@ -12310,7 +12309,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="14.45">
+    <row r="349" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>855</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="14.45">
+    <row r="350" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>1037</v>
       </c>
@@ -12346,7 +12345,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="14.45">
+    <row r="351" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>1038</v>
       </c>
@@ -12364,7 +12363,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="14.45">
+    <row r="352" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>1039</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="353" spans="1:26" ht="14.45">
+    <row r="353" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>1040</v>
       </c>
@@ -12400,7 +12399,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="354" spans="1:26" ht="14.45">
+    <row r="354" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>1041</v>
       </c>
@@ -12416,7 +12415,7 @@
       </c>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:26" ht="14.45">
+    <row r="355" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>1042</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="356" spans="1:26" ht="14.45">
+    <row r="356" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>1043</v>
       </c>
@@ -12450,7 +12449,7 @@
       </c>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:26" ht="14.45">
+    <row r="357" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>1044</v>
       </c>
@@ -12466,7 +12465,7 @@
       </c>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:26" ht="14.45">
+    <row r="358" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>1045</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="359" spans="1:26" ht="14.45">
+    <row r="359" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>1058</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="360" spans="1:26" ht="14.45">
+    <row r="360" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>1059</v>
       </c>
@@ -12520,7 +12519,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="361" spans="1:26" ht="14.45">
+    <row r="361" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A361" s="17">
         <v>886</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="362" spans="1:26" ht="14.45">
+    <row r="362" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A362" s="17">
         <v>887</v>
       </c>
@@ -12574,7 +12573,7 @@
       <c r="W362" s="7"/>
       <c r="X362" s="7"/>
     </row>
-    <row r="363" spans="1:26" ht="14.45">
+    <row r="363" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>1082</v>
       </c>
@@ -12590,7 +12589,7 @@
       </c>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:26" ht="14.45">
+    <row r="364" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>927</v>
       </c>
@@ -12626,7 +12625,7 @@
       <c r="Y364" s="5"/>
       <c r="Z364" s="5"/>
     </row>
-    <row r="365" spans="1:26" ht="14.45">
+    <row r="365" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A365" s="17">
         <v>931</v>
       </c>
@@ -12662,7 +12661,7 @@
       <c r="W365" s="7"/>
       <c r="X365" s="7"/>
     </row>
-    <row r="366" spans="1:26" ht="14.45">
+    <row r="366" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>1393</v>
       </c>
@@ -12679,7 +12678,7 @@
       <c r="F366" s="8"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="1:26" ht="14.45">
+    <row r="367" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A367" s="17">
         <v>935</v>
       </c>
@@ -12715,7 +12714,7 @@
       <c r="W367" s="7"/>
       <c r="X367" s="7"/>
     </row>
-    <row r="368" spans="1:26" s="7" customFormat="1" ht="14.45">
+    <row r="368" spans="1:26" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>366</v>
       </c>
@@ -12733,7 +12732,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="14.45">
+    <row r="369" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A369" s="17">
         <v>972</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="14.45">
+    <row r="370" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>438</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="371" spans="1:8" s="7" customFormat="1" ht="14.45">
+    <row r="371" spans="1:8" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>448</v>
       </c>
@@ -12787,7 +12786,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="14.45">
+    <row r="372" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>547</v>
       </c>
@@ -12805,7 +12804,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="14.45">
+    <row r="373" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>557</v>
       </c>
@@ -12823,7 +12822,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="14.45">
+    <row r="374" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>558</v>
       </c>
@@ -12841,7 +12840,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="14.45">
+    <row r="375" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>996</v>
       </c>
@@ -12859,7 +12858,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="14.45">
+    <row r="376" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>767</v>
       </c>
@@ -12877,7 +12876,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="14.45">
+    <row r="377" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>833</v>
       </c>
@@ -12893,7 +12892,7 @@
       </c>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:8" ht="14.45">
+    <row r="378" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>836</v>
       </c>
@@ -12911,7 +12910,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="14.45">
+    <row r="379" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>1083</v>
       </c>
@@ -12927,7 +12926,7 @@
       </c>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:8" ht="14.45">
+    <row r="380" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>1110</v>
       </c>
@@ -12945,7 +12944,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="14.45">
+    <row r="381" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>1205</v>
       </c>
@@ -12964,7 +12963,7 @@
       </c>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="1:8" ht="14.45">
+    <row r="382" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>1056</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="14.45">
+    <row r="383" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>1505</v>
       </c>
@@ -13003,7 +13002,7 @@
       </c>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" spans="1:8" ht="14.45">
+    <row r="384" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>1596</v>
       </c>
@@ -13022,7 +13021,7 @@
       </c>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" spans="1:26" ht="14.45">
+    <row r="385" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>1057</v>
       </c>
@@ -13040,7 +13039,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="386" spans="1:26" ht="14.45">
+    <row r="386" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>1877</v>
       </c>
@@ -13059,7 +13058,7 @@
       </c>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="1:26" ht="14.45">
+    <row r="387" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>1902</v>
       </c>
@@ -13076,7 +13075,7 @@
       <c r="F387" s="8"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" spans="1:26" ht="14.45">
+    <row r="388" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>1077</v>
       </c>
@@ -13094,7 +13093,7 @@
       <c r="Y388" s="5"/>
       <c r="Z388" s="5"/>
     </row>
-    <row r="389" spans="1:26" ht="14.45">
+    <row r="389" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>2204</v>
       </c>
@@ -13132,7 +13131,7 @@
       <c r="Y389" s="5"/>
       <c r="Z389" s="5"/>
     </row>
-    <row r="390" spans="1:26" ht="14.45">
+    <row r="390" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>2205</v>
       </c>
@@ -13170,7 +13169,7 @@
       <c r="Y390" s="5"/>
       <c r="Z390" s="5"/>
     </row>
-    <row r="391" spans="1:26" ht="14.45">
+    <row r="391" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>2206</v>
       </c>
@@ -13208,7 +13207,7 @@
       <c r="Y391" s="5"/>
       <c r="Z391" s="5"/>
     </row>
-    <row r="392" spans="1:26" ht="14.45">
+    <row r="392" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>2208</v>
       </c>
@@ -13246,7 +13245,7 @@
       <c r="Y392" s="5"/>
       <c r="Z392" s="5"/>
     </row>
-    <row r="393" spans="1:26" ht="14.45">
+    <row r="393" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>2212</v>
       </c>
@@ -13282,7 +13281,7 @@
       <c r="Y393" s="5"/>
       <c r="Z393" s="5"/>
     </row>
-    <row r="394" spans="1:26" ht="14.45">
+    <row r="394" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A394" s="15">
         <v>2213</v>
       </c>
@@ -13322,7 +13321,7 @@
       <c r="Y394" s="5"/>
       <c r="Z394" s="5"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="15">
         <v>1080</v>
       </c>
@@ -13342,7 +13341,7 @@
       <c r="Y395" s="6"/>
       <c r="Z395" s="6"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9">
         <v>554</v>
       </c>
@@ -13362,7 +13361,7 @@
       <c r="Y396" s="6"/>
       <c r="Z396" s="6"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9">
         <v>657</v>
       </c>
@@ -13382,7 +13381,7 @@
       <c r="Y397" s="6"/>
       <c r="Z397" s="6"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9">
         <v>716</v>
       </c>
@@ -13400,7 +13399,7 @@
       <c r="Y398" s="6"/>
       <c r="Z398" s="6"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9">
         <v>717</v>
       </c>
@@ -13418,7 +13417,7 @@
       <c r="Y399" s="6"/>
       <c r="Z399" s="6"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="9">
         <v>718</v>
       </c>
@@ -13436,7 +13435,7 @@
       <c r="Y400" s="6"/>
       <c r="Z400" s="6"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9">
         <v>929</v>
       </c>
@@ -13454,7 +13453,7 @@
       <c r="Y401" s="6"/>
       <c r="Z401" s="6"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9">
         <v>984</v>
       </c>
@@ -13472,7 +13471,7 @@
       <c r="Y402" s="6"/>
       <c r="Z402" s="6"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9">
         <v>1051</v>
       </c>
@@ -13492,7 +13491,7 @@
       <c r="Y403" s="6"/>
       <c r="Z403" s="6"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9">
         <v>1052</v>
       </c>
@@ -13512,7 +13511,7 @@
       <c r="Y404" s="6"/>
       <c r="Z404" s="6"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9">
         <v>1053</v>
       </c>
@@ -13532,7 +13531,7 @@
       <c r="Y405" s="6"/>
       <c r="Z405" s="6"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9">
         <v>1068</v>
       </c>
@@ -13552,7 +13551,7 @@
       <c r="Y406" s="6"/>
       <c r="Z406" s="6"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9">
         <v>1069</v>
       </c>
@@ -13572,7 +13571,7 @@
       <c r="Y407" s="6"/>
       <c r="Z407" s="6"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="9">
         <v>1163</v>
       </c>
@@ -13592,7 +13591,7 @@
       <c r="Y408" s="6"/>
       <c r="Z408" s="6"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="9">
         <v>1898</v>
       </c>
@@ -13613,7 +13612,7 @@
       <c r="Y409" s="6"/>
       <c r="Z409" s="6"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="9">
         <v>1909</v>
       </c>
@@ -13651,7 +13650,7 @@
       <c r="Y410" s="6"/>
       <c r="Z410" s="6"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="9">
         <v>1910</v>
       </c>
@@ -13689,7 +13688,7 @@
       <c r="Y411" s="6"/>
       <c r="Z411" s="6"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="9">
         <v>1911</v>
       </c>
@@ -13727,7 +13726,7 @@
       <c r="Y412" s="6"/>
       <c r="Z412" s="6"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9">
         <v>1912</v>
       </c>
@@ -13765,7 +13764,7 @@
       <c r="Y413" s="6"/>
       <c r="Z413" s="6"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9">
         <v>1913</v>
       </c>
@@ -13803,7 +13802,7 @@
       <c r="Y414" s="6"/>
       <c r="Z414" s="6"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="9">
         <v>1914</v>
       </c>
@@ -13841,7 +13840,7 @@
       <c r="Y415" s="6"/>
       <c r="Z415" s="6"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="9">
         <v>1915</v>
       </c>
@@ -13879,7 +13878,7 @@
       <c r="Y416" s="6"/>
       <c r="Z416" s="6"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9">
         <v>1916</v>
       </c>
@@ -13917,7 +13916,7 @@
       <c r="Y417" s="6"/>
       <c r="Z417" s="6"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="9">
         <v>1917</v>
       </c>
@@ -13955,7 +13954,7 @@
       <c r="Y418" s="6"/>
       <c r="Z418" s="6"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="15">
         <v>1081</v>
       </c>
@@ -13975,7 +13974,7 @@
       <c r="Y419" s="6"/>
       <c r="Z419" s="6"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="15">
         <v>1084</v>
       </c>
@@ -14013,7 +14012,7 @@
       <c r="Y420" s="6"/>
       <c r="Z420" s="6"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="15">
         <v>1087</v>
       </c>
@@ -14033,7 +14032,7 @@
       <c r="Y421" s="6"/>
       <c r="Z421" s="6"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="15">
         <v>1092</v>
       </c>
@@ -14053,7 +14052,7 @@
       <c r="Y422" s="6"/>
       <c r="Z422" s="6"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="15">
         <v>1158</v>
       </c>
@@ -14091,7 +14090,7 @@
       <c r="Y423" s="6"/>
       <c r="Z423" s="6"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="15">
         <v>1175</v>
       </c>
@@ -14109,7 +14108,7 @@
       <c r="Y424" s="6"/>
       <c r="Z424" s="6"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="9">
         <v>2235</v>
       </c>
@@ -14147,7 +14146,7 @@
       <c r="Y425" s="6"/>
       <c r="Z425" s="6"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="9">
         <v>2236</v>
       </c>
@@ -14185,7 +14184,7 @@
       <c r="Y426" s="6"/>
       <c r="Z426" s="6"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9">
         <v>2237</v>
       </c>
@@ -14223,7 +14222,7 @@
       <c r="Y427" s="6"/>
       <c r="Z427" s="6"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9">
         <v>2029</v>
       </c>
@@ -14261,7 +14260,7 @@
       <c r="Y428" s="6"/>
       <c r="Z428" s="6"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9">
         <v>314</v>
       </c>
@@ -14281,7 +14280,7 @@
       <c r="Y429" s="6"/>
       <c r="Z429" s="6"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9">
         <v>321</v>
       </c>
@@ -14319,7 +14318,7 @@
       <c r="Y430" s="6"/>
       <c r="Z430" s="6"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="15" t="s">
         <v>1107</v>
       </c>
@@ -14337,7 +14336,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="15">
         <v>1157</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="15.75" customHeight="1">
+    <row r="433" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="15">
         <v>1194</v>
       </c>
@@ -14372,7 +14371,7 @@
       <c r="F433" s="8"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="434" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="15">
         <v>1442</v>
       </c>
@@ -14408,7 +14407,7 @@
       <c r="W434" s="2"/>
       <c r="X434" s="2"/>
     </row>
-    <row r="435" spans="1:24" ht="15.75" customHeight="1">
+    <row r="435" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9">
         <v>1417</v>
       </c>
@@ -14442,7 +14441,7 @@
       <c r="W435" s="6"/>
       <c r="X435" s="6"/>
     </row>
-    <row r="436" spans="1:24" ht="15.75" customHeight="1">
+    <row r="436" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="15">
         <v>1449</v>
       </c>
@@ -14460,7 +14459,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="437" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="437" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="9">
         <v>1453</v>
       </c>
@@ -14496,7 +14495,7 @@
       <c r="W437" s="2"/>
       <c r="X437" s="2"/>
     </row>
-    <row r="438" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="438" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="15">
         <v>1471</v>
       </c>
@@ -14512,7 +14511,7 @@
       </c>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="439" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9">
         <v>1472</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="440" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="440" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="9">
         <v>1473</v>
       </c>
@@ -14548,7 +14547,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="441" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="441" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="9">
         <v>1474</v>
       </c>
@@ -14564,7 +14563,7 @@
       </c>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="442" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="9">
         <v>1475</v>
       </c>
@@ -14580,7 +14579,7 @@
       </c>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="443" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="9">
         <v>1476</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="444" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="444" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="9">
         <v>1477</v>
       </c>
@@ -14614,7 +14613,7 @@
       </c>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="445" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="9">
         <v>1478</v>
       </c>
@@ -14630,7 +14629,7 @@
       </c>
       <c r="F445" s="10"/>
     </row>
-    <row r="446" spans="1:24" ht="15.75" customHeight="1">
+    <row r="446" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="9">
         <v>1602</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="15.75" customHeight="1">
+    <row r="447" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="9">
         <v>1648</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="15.75" customHeight="1">
+    <row r="448" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="9">
         <v>1642</v>
       </c>
@@ -14684,7 +14683,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="15.75" customHeight="1">
+    <row r="449" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="9">
         <v>1480</v>
       </c>
@@ -14718,7 +14717,7 @@
       <c r="W449" s="7"/>
       <c r="X449" s="7"/>
     </row>
-    <row r="450" spans="1:24" ht="15.75" customHeight="1">
+    <row r="450" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="9">
         <v>1841</v>
       </c>
@@ -14734,7 +14733,7 @@
       </c>
       <c r="F450" s="10"/>
     </row>
-    <row r="451" spans="1:24" ht="15.75" customHeight="1">
+    <row r="451" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="9">
         <v>1922</v>
       </c>
@@ -14750,7 +14749,7 @@
       </c>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:24" ht="15.75" customHeight="1">
+    <row r="452" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="9">
         <v>2050</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="15.75" customHeight="1">
+    <row r="453" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="9">
         <v>2154</v>
       </c>
@@ -14786,7 +14785,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="15.75" customHeight="1">
+    <row r="454" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="9">
         <v>2241</v>
       </c>
@@ -14804,7 +14803,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="15.75" customHeight="1">
+    <row r="455" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="9">
         <v>2238</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="15.75" customHeight="1">
+    <row r="456" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="9">
         <v>2257</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="15.75" customHeight="1">
+    <row r="457" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="9">
         <v>2258</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="15.75" customHeight="1">
+    <row r="458" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="9">
         <v>2283</v>
       </c>
@@ -14876,7 +14875,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="15.75" customHeight="1">
+    <row r="459" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="9">
         <v>2284</v>
       </c>
@@ -14894,7 +14893,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="15.75" customHeight="1">
+    <row r="460" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="9">
         <v>2285</v>
       </c>
@@ -14912,7 +14911,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="15.75" customHeight="1">
+    <row r="461" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="9">
         <v>2303</v>
       </c>
@@ -14930,7 +14929,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="15.75" customHeight="1">
+    <row r="462" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="9">
         <v>2315</v>
       </c>
@@ -14946,7 +14945,7 @@
       </c>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:24" ht="15.75" customHeight="1">
+    <row r="463" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="9">
         <v>2316</v>
       </c>
@@ -14962,7 +14961,7 @@
       </c>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:24" ht="15.75" customHeight="1">
+    <row r="464" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="9">
         <v>2317</v>
       </c>
@@ -14978,7 +14977,7 @@
       </c>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:24" ht="15.75" customHeight="1">
+    <row r="465" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="9">
         <v>2320</v>
       </c>
@@ -14996,7 +14995,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="15.75" customHeight="1">
+    <row r="466" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="9">
         <v>2327</v>
       </c>
@@ -15012,7 +15011,7 @@
       </c>
       <c r="F466" s="10"/>
     </row>
-    <row r="467" spans="1:24" ht="15.75" customHeight="1">
+    <row r="467" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="9">
         <v>2328</v>
       </c>
@@ -15028,7 +15027,7 @@
       </c>
       <c r="F467" s="10"/>
     </row>
-    <row r="468" spans="1:24" ht="15.75" customHeight="1">
+    <row r="468" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="15">
         <v>1632</v>
       </c>
@@ -15045,7 +15044,7 @@
       <c r="F468" s="8"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="1:24" ht="15.75" customHeight="1">
+    <row r="469" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="9">
         <v>2331</v>
       </c>
@@ -15063,7 +15062,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="15.75" customHeight="1">
+    <row r="470" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="9">
         <v>2298</v>
       </c>
@@ -15079,7 +15078,7 @@
       </c>
       <c r="F470" s="10"/>
     </row>
-    <row r="471" spans="1:24" ht="15.75" customHeight="1">
+    <row r="471" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="9">
         <v>2299</v>
       </c>
@@ -15095,7 +15094,7 @@
       </c>
       <c r="F471" s="10"/>
     </row>
-    <row r="472" spans="1:24" ht="15.75" customHeight="1">
+    <row r="472" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="9">
         <v>2300</v>
       </c>
@@ -15111,7 +15110,7 @@
       </c>
       <c r="F472" s="10"/>
     </row>
-    <row r="473" spans="1:24" ht="15.75" customHeight="1">
+    <row r="473" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="9">
         <v>2301</v>
       </c>
@@ -15127,7 +15126,7 @@
       </c>
       <c r="F473" s="10"/>
     </row>
-    <row r="474" spans="1:24" ht="15.75" customHeight="1">
+    <row r="474" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="9">
         <v>2302</v>
       </c>
@@ -15143,7 +15142,7 @@
       </c>
       <c r="F474" s="10"/>
     </row>
-    <row r="475" spans="1:24" ht="15.75" customHeight="1">
+    <row r="475" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="9">
         <v>2341</v>
       </c>
@@ -15159,7 +15158,7 @@
       </c>
       <c r="F475" s="10"/>
     </row>
-    <row r="476" spans="1:24" ht="15.75" customHeight="1">
+    <row r="476" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="9">
         <v>2332</v>
       </c>
@@ -15177,7 +15176,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="15.75" customHeight="1">
+    <row r="477" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="9">
         <v>2333</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="15.75" customHeight="1">
+    <row r="478" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="9">
         <v>2334</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="479" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="479" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="15">
         <v>1638</v>
       </c>
@@ -15247,7 +15246,7 @@
       <c r="W479" s="2"/>
       <c r="X479" s="2"/>
     </row>
-    <row r="480" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="480" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="9">
         <v>2310</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="15.75" customHeight="1">
+    <row r="481" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="15">
         <v>1835</v>
       </c>
@@ -15281,7 +15280,7 @@
       </c>
       <c r="F481" s="10"/>
     </row>
-    <row r="482" spans="1:24" ht="15.75" customHeight="1">
+    <row r="482" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="9">
         <v>1838</v>
       </c>
@@ -15299,7 +15298,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="15.75" customHeight="1">
+    <row r="483" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="9">
         <v>2348</v>
       </c>
@@ -15315,7 +15314,7 @@
       </c>
       <c r="F483" s="10"/>
     </row>
-    <row r="484" spans="1:24" ht="15.75" customHeight="1">
+    <row r="484" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="9">
         <v>2373</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="485" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="485" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="9">
         <v>1851</v>
       </c>
@@ -15369,7 +15368,7 @@
       <c r="W485" s="2"/>
       <c r="X485" s="2"/>
     </row>
-    <row r="486" spans="1:24" ht="15.75" customHeight="1">
+    <row r="486" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="9">
         <v>2359</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="15.75" customHeight="1">
+    <row r="487" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="9">
         <v>2374</v>
       </c>
@@ -15405,7 +15404,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="15.75" customHeight="1">
+    <row r="488" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="9">
         <v>2381</v>
       </c>
@@ -15423,7 +15422,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="15.75" customHeight="1">
+    <row r="489" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="9">
         <v>2376</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="15.75" customHeight="1">
+    <row r="490" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="9">
         <v>2384</v>
       </c>
@@ -15457,7 +15456,7 @@
       </c>
       <c r="F490" s="10"/>
     </row>
-    <row r="491" spans="1:24" ht="15.75" customHeight="1">
+    <row r="491" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="9">
         <v>2385</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="492" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="492" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="15">
         <v>1974</v>
       </c>
@@ -15509,7 +15508,7 @@
       <c r="W492" s="6"/>
       <c r="X492" s="6"/>
     </row>
-    <row r="493" spans="1:24" ht="15.75" customHeight="1">
+    <row r="493" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="9">
         <v>2401</v>
       </c>
@@ -15527,7 +15526,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="15.75" customHeight="1">
+    <row r="494" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="9">
         <v>2391</v>
       </c>
@@ -15545,7 +15544,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="15.75" customHeight="1">
+    <row r="495" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="9">
         <v>2393</v>
       </c>
@@ -15561,7 +15560,7 @@
       </c>
       <c r="F495" s="10"/>
     </row>
-    <row r="496" spans="1:24" ht="15.75" customHeight="1">
+    <row r="496" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="9">
         <v>2409</v>
       </c>
@@ -15579,7 +15578,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="15.75" customHeight="1">
+    <row r="497" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="9">
         <v>2395</v>
       </c>
@@ -15595,7 +15594,7 @@
       </c>
       <c r="F497" s="10"/>
     </row>
-    <row r="498" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="498" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="9">
         <v>2226</v>
       </c>
@@ -15631,7 +15630,7 @@
       <c r="W498" s="6"/>
       <c r="X498" s="6"/>
     </row>
-    <row r="499" spans="1:24" ht="15.75" customHeight="1">
+    <row r="499" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="9">
         <v>2398</v>
       </c>
@@ -15649,7 +15648,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="15.75" customHeight="1">
+    <row r="500" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="9">
         <v>2402</v>
       </c>
@@ -15667,7 +15666,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="15.75" customHeight="1">
+    <row r="501" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="9">
         <v>2403</v>
       </c>
@@ -15683,7 +15682,7 @@
       </c>
       <c r="F501" s="10"/>
     </row>
-    <row r="502" spans="1:24" ht="15.75" customHeight="1">
+    <row r="502" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="9">
         <v>2404</v>
       </c>
@@ -15701,7 +15700,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="503" spans="1:24" ht="15.75" customHeight="1">
+    <row r="503" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="9">
         <v>2405</v>
       </c>
@@ -15717,7 +15716,7 @@
       </c>
       <c r="F503" s="10"/>
     </row>
-    <row r="504" spans="1:24" ht="15.75" customHeight="1">
+    <row r="504" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="9">
         <v>2407</v>
       </c>
@@ -15735,7 +15734,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="505" spans="1:24" ht="15.75" customHeight="1">
+    <row r="505" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="9">
         <v>2442</v>
       </c>
@@ -15753,7 +15752,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="506" spans="1:24" ht="15.75" customHeight="1">
+    <row r="506" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="9">
         <v>2227</v>
       </c>
@@ -15789,7 +15788,7 @@
       <c r="W506" s="6"/>
       <c r="X506" s="6"/>
     </row>
-    <row r="507" spans="1:24" ht="15.75" customHeight="1">
+    <row r="507" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="9">
         <v>2413</v>
       </c>
@@ -15807,7 +15806,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="508" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="508" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="9">
         <v>2231</v>
       </c>
@@ -15843,7 +15842,7 @@
       <c r="W508" s="6"/>
       <c r="X508" s="6"/>
     </row>
-    <row r="509" spans="1:24" ht="15.75" customHeight="1">
+    <row r="509" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="9">
         <v>2415</v>
       </c>
@@ -15861,7 +15860,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="510" spans="1:24" ht="15.75" customHeight="1">
+    <row r="510" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="9">
         <v>2420</v>
       </c>
@@ -15879,7 +15878,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="511" spans="1:24" ht="15.75" customHeight="1">
+    <row r="511" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="9">
         <v>2421</v>
       </c>
@@ -15895,7 +15894,7 @@
       </c>
       <c r="F511" s="10"/>
     </row>
-    <row r="512" spans="1:24" ht="15.75" customHeight="1">
+    <row r="512" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="9">
         <v>2426</v>
       </c>
@@ -15913,7 +15912,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="513" spans="1:24" ht="15.75" customHeight="1">
+    <row r="513" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="9">
         <v>2428</v>
       </c>
@@ -15931,7 +15930,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="514" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="514" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="9">
         <v>2232</v>
       </c>
@@ -15965,7 +15964,7 @@
       <c r="W514" s="6"/>
       <c r="X514" s="6"/>
     </row>
-    <row r="515" spans="1:24" ht="15.75" customHeight="1">
+    <row r="515" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="9">
         <v>2429</v>
       </c>
@@ -15983,7 +15982,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="516" spans="1:24" ht="15.75" customHeight="1">
+    <row r="516" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="9">
         <v>2431</v>
       </c>
@@ -16001,7 +16000,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="517" spans="1:24" ht="15.75" customHeight="1">
+    <row r="517" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="9">
         <v>2432</v>
       </c>
@@ -16019,7 +16018,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="518" spans="1:24" ht="15.75" customHeight="1">
+    <row r="518" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="9">
         <v>2434</v>
       </c>
@@ -16037,7 +16036,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="519" spans="1:24" ht="15.75" customHeight="1">
+    <row r="519" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="9">
         <v>2436</v>
       </c>
@@ -16055,7 +16054,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="520" spans="1:24" ht="15.75" customHeight="1">
+    <row r="520" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="9">
         <v>2444</v>
       </c>
@@ -16071,7 +16070,7 @@
       </c>
       <c r="F520" s="10"/>
     </row>
-    <row r="521" spans="1:24" ht="15.75" customHeight="1">
+    <row r="521" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="9">
         <v>2445</v>
       </c>
@@ -16087,7 +16086,7 @@
       </c>
       <c r="F521" s="10"/>
     </row>
-    <row r="522" spans="1:24" ht="15.75" customHeight="1">
+    <row r="522" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="9">
         <v>2447</v>
       </c>
@@ -16105,7 +16104,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="523" spans="1:24" ht="15.75" customHeight="1">
+    <row r="523" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="9">
         <v>2448</v>
       </c>
@@ -16123,7 +16122,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="524" spans="1:24" ht="15.75" customHeight="1">
+    <row r="524" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="9">
         <v>2450</v>
       </c>
@@ -16139,7 +16138,7 @@
       </c>
       <c r="F524" s="10"/>
     </row>
-    <row r="525" spans="1:24" ht="15.75" customHeight="1">
+    <row r="525" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="9">
         <v>2451</v>
       </c>
@@ -16157,7 +16156,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="526" spans="1:24" ht="15.75" customHeight="1">
+    <row r="526" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="9">
         <v>2452</v>
       </c>
@@ -16175,7 +16174,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="527" spans="1:24" ht="15.75" customHeight="1">
+    <row r="527" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="9">
         <v>2464</v>
       </c>
@@ -16193,7 +16192,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="528" spans="1:24" ht="15.75" customHeight="1">
+    <row r="528" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="9">
         <v>2466</v>
       </c>
@@ -16211,7 +16210,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="529" spans="1:24" ht="15.75" customHeight="1">
+    <row r="529" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="9">
         <v>2454</v>
       </c>
@@ -16227,7 +16226,7 @@
       </c>
       <c r="F529" s="10"/>
     </row>
-    <row r="530" spans="1:24" ht="15.75" customHeight="1">
+    <row r="530" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="9">
         <v>2468</v>
       </c>
@@ -16243,7 +16242,7 @@
       </c>
       <c r="F530" s="10"/>
     </row>
-    <row r="531" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="531" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="9">
         <v>2233</v>
       </c>
@@ -16277,7 +16276,7 @@
       <c r="W531" s="6"/>
       <c r="X531" s="6"/>
     </row>
-    <row r="532" spans="1:24" ht="15.75" customHeight="1">
+    <row r="532" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="9">
         <v>2469</v>
       </c>
@@ -16293,7 +16292,7 @@
       </c>
       <c r="F532" s="10"/>
     </row>
-    <row r="533" spans="1:24" ht="15.75" customHeight="1">
+    <row r="533" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="9">
         <v>2470</v>
       </c>
@@ -16309,7 +16308,7 @@
       </c>
       <c r="F533" s="10"/>
     </row>
-    <row r="534" spans="1:24" ht="15.75" customHeight="1">
+    <row r="534" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="9">
         <v>2471</v>
       </c>
@@ -16325,7 +16324,7 @@
       </c>
       <c r="F534" s="10"/>
     </row>
-    <row r="535" spans="1:24" ht="15.75" customHeight="1">
+    <row r="535" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="9">
         <v>2472</v>
       </c>
@@ -16341,7 +16340,7 @@
       </c>
       <c r="F535" s="10"/>
     </row>
-    <row r="536" spans="1:24" ht="15.75" customHeight="1">
+    <row r="536" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="9">
         <v>2473</v>
       </c>
@@ -16357,7 +16356,7 @@
       </c>
       <c r="F536" s="10"/>
     </row>
-    <row r="537" spans="1:24" ht="15.75" customHeight="1">
+    <row r="537" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="9">
         <v>2482</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="538" spans="1:24" ht="15.75" customHeight="1">
+    <row r="538" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="9">
         <v>2487</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="539" spans="1:24" ht="15.75" customHeight="1">
+    <row r="539" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="9">
         <v>2500</v>
       </c>
@@ -16411,7 +16410,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="540" spans="1:24" ht="15.75" customHeight="1">
+    <row r="540" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="9">
         <v>2490</v>
       </c>
@@ -16429,7 +16428,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="541" spans="1:24" ht="15.75" customHeight="1">
+    <row r="541" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="9">
         <v>2234</v>
       </c>
@@ -16463,7 +16462,7 @@
       <c r="W541" s="6"/>
       <c r="X541" s="6"/>
     </row>
-    <row r="542" spans="1:24" ht="15.75" customHeight="1">
+    <row r="542" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="9">
         <v>2474</v>
       </c>
@@ -16479,7 +16478,7 @@
       </c>
       <c r="F542" s="10"/>
     </row>
-    <row r="543" spans="1:24" ht="15.75" customHeight="1">
+    <row r="543" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="9">
         <v>2475</v>
       </c>
@@ -16495,7 +16494,7 @@
       </c>
       <c r="F543" s="10"/>
     </row>
-    <row r="544" spans="1:24" ht="15.75" customHeight="1">
+    <row r="544" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="9">
         <v>2476</v>
       </c>
@@ -16511,7 +16510,7 @@
       </c>
       <c r="F544" s="10"/>
     </row>
-    <row r="545" spans="1:24" ht="15.75" customHeight="1">
+    <row r="545" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="9">
         <v>2477</v>
       </c>
@@ -16527,7 +16526,7 @@
       </c>
       <c r="F545" s="10"/>
     </row>
-    <row r="546" spans="1:24" ht="15.75" customHeight="1">
+    <row r="546" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="9">
         <v>2478</v>
       </c>
@@ -16543,7 +16542,7 @@
       </c>
       <c r="F546" s="10"/>
     </row>
-    <row r="547" spans="1:24" ht="15.75" customHeight="1">
+    <row r="547" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="9">
         <v>2479</v>
       </c>
@@ -16559,7 +16558,7 @@
       </c>
       <c r="F547" s="10"/>
     </row>
-    <row r="548" spans="1:24" ht="15.75" customHeight="1">
+    <row r="548" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="9">
         <v>2480</v>
       </c>
@@ -16575,7 +16574,7 @@
       </c>
       <c r="F548" s="10"/>
     </row>
-    <row r="549" spans="1:24" ht="15.75" customHeight="1">
+    <row r="549" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="9">
         <v>2481</v>
       </c>
@@ -16591,7 +16590,7 @@
       </c>
       <c r="F549" s="10"/>
     </row>
-    <row r="550" spans="1:24" ht="15.75" customHeight="1">
+    <row r="550" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="9">
         <v>2484</v>
       </c>
@@ -16609,7 +16608,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="551" spans="1:24" ht="15.75" customHeight="1">
+    <row r="551" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="9">
         <v>2485</v>
       </c>
@@ -16625,7 +16624,7 @@
       </c>
       <c r="F551" s="10"/>
     </row>
-    <row r="552" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="552" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="9">
         <v>2459</v>
       </c>
@@ -16643,7 +16642,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="553" spans="1:24" ht="15.75" customHeight="1">
+    <row r="553" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="9">
         <v>2512</v>
       </c>
@@ -16661,7 +16660,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="554" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="554" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="9">
         <v>2308</v>
       </c>
@@ -16697,7 +16696,7 @@
       <c r="W554" s="2"/>
       <c r="X554" s="2"/>
     </row>
-    <row r="555" spans="1:24" ht="15.75" customHeight="1">
+    <row r="555" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="9">
         <v>2309</v>
       </c>
@@ -16731,7 +16730,7 @@
       <c r="W555" s="7"/>
       <c r="X555" s="7"/>
     </row>
-    <row r="556" spans="1:24" ht="15.75" customHeight="1">
+    <row r="556" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="9">
         <v>2543</v>
       </c>
@@ -16747,7 +16746,7 @@
       </c>
       <c r="F556" s="10"/>
     </row>
-    <row r="557" spans="1:24" ht="15.75" customHeight="1">
+    <row r="557" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="9">
         <v>2544</v>
       </c>
@@ -16763,7 +16762,7 @@
       </c>
       <c r="F557" s="10"/>
     </row>
-    <row r="558" spans="1:24" ht="15.75" customHeight="1">
+    <row r="558" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="9">
         <v>2501</v>
       </c>
@@ -16781,7 +16780,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="559" spans="1:24" ht="15.75" customHeight="1">
+    <row r="559" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="9">
         <v>2525</v>
       </c>
@@ -16799,7 +16798,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="560" spans="1:24" ht="15.75" customHeight="1">
+    <row r="560" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="9">
         <v>2519</v>
       </c>
@@ -16817,7 +16816,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="561" spans="1:24" ht="15.75" customHeight="1">
+    <row r="561" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="9">
         <v>2497</v>
       </c>
@@ -16835,7 +16834,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="562" spans="1:24" ht="15.75" customHeight="1">
+    <row r="562" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="9">
         <v>2531</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="563" spans="1:24" ht="15.75" customHeight="1">
+    <row r="563" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="9">
         <v>2532</v>
       </c>
@@ -16871,7 +16870,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="564" spans="1:24" ht="15.75" customHeight="1">
+    <row r="564" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="9">
         <v>2537</v>
       </c>
@@ -16887,7 +16886,7 @@
       </c>
       <c r="F564" s="10"/>
     </row>
-    <row r="565" spans="1:24" ht="15.75" customHeight="1">
+    <row r="565" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="9">
         <v>2530</v>
       </c>
@@ -16905,7 +16904,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="566" spans="1:24" ht="15.75" customHeight="1">
+    <row r="566" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="9">
         <v>2534</v>
       </c>
@@ -16923,7 +16922,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="567" spans="1:24" ht="15.75" customHeight="1">
+    <row r="567" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="9">
         <v>2551</v>
       </c>
@@ -16941,7 +16940,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="568" spans="1:24" ht="15.75" customHeight="1">
+    <row r="568" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="9">
         <v>2330</v>
       </c>
@@ -16977,7 +16976,7 @@
       <c r="W568" s="7"/>
       <c r="X568" s="7"/>
     </row>
-    <row r="569" spans="1:24" ht="15.75" customHeight="1">
+    <row r="569" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="9">
         <v>2502</v>
       </c>
@@ -16993,7 +16992,7 @@
       </c>
       <c r="F569" s="10"/>
     </row>
-    <row r="570" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="570" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="9">
         <v>2516</v>
       </c>
@@ -17011,7 +17010,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="571" spans="1:24" ht="15.75" customHeight="1">
+    <row r="571" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="9">
         <v>2547</v>
       </c>
@@ -17031,7 +17030,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="572" spans="1:24" ht="15.75" customHeight="1">
+    <row r="572" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="9">
         <v>2591</v>
       </c>
@@ -17047,7 +17046,7 @@
       </c>
       <c r="F572" s="10"/>
     </row>
-    <row r="573" spans="1:24" ht="15.75" customHeight="1">
+    <row r="573" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="9">
         <v>2592</v>
       </c>
@@ -17063,7 +17062,7 @@
       </c>
       <c r="F573" s="10"/>
     </row>
-    <row r="574" spans="1:24" ht="15.75" customHeight="1">
+    <row r="574" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="9">
         <v>2593</v>
       </c>
@@ -17079,7 +17078,7 @@
       </c>
       <c r="F574" s="10"/>
     </row>
-    <row r="575" spans="1:24" ht="15.75" customHeight="1">
+    <row r="575" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="9">
         <v>2566</v>
       </c>
@@ -17097,7 +17096,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="576" spans="1:24" ht="15.75" customHeight="1">
+    <row r="576" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="9">
         <v>2567</v>
       </c>
@@ -17113,7 +17112,7 @@
       </c>
       <c r="F576" s="10"/>
     </row>
-    <row r="577" spans="1:24" ht="15.75" customHeight="1">
+    <row r="577" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="9">
         <v>2568</v>
       </c>
@@ -17131,7 +17130,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="578" spans="1:24" ht="15.75" customHeight="1">
+    <row r="578" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="9">
         <v>2594</v>
       </c>
@@ -17149,7 +17148,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="579" spans="1:24" ht="15.75" customHeight="1">
+    <row r="579" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="9">
         <v>2508</v>
       </c>
@@ -17165,7 +17164,7 @@
       </c>
       <c r="F579" s="10"/>
     </row>
-    <row r="580" spans="1:24" ht="15.75" customHeight="1">
+    <row r="580" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="9">
         <v>2622</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="581" spans="1:24" ht="15.75" customHeight="1">
+    <row r="581" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="9">
         <v>2620</v>
       </c>
@@ -17201,7 +17200,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="582" spans="1:24" ht="15.75" customHeight="1">
+    <row r="582" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="9">
         <v>2595</v>
       </c>
@@ -17219,7 +17218,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="583" spans="1:24" ht="15.75" customHeight="1">
+    <row r="583" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="9">
         <v>2621</v>
       </c>
@@ -17237,7 +17236,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="584" spans="1:24" ht="15.75" customHeight="1">
+    <row r="584" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="9">
         <v>2596</v>
       </c>
@@ -17255,7 +17254,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="585" spans="1:24" ht="15.75" customHeight="1">
+    <row r="585" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="9">
         <v>2599</v>
       </c>
@@ -17271,7 +17270,7 @@
       </c>
       <c r="F585" s="10"/>
     </row>
-    <row r="586" spans="1:24" ht="15.75" customHeight="1">
+    <row r="586" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="9">
         <v>2335</v>
       </c>
@@ -17289,7 +17288,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="587" spans="1:24" ht="15.75" customHeight="1">
+    <row r="587" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="9">
         <v>2629</v>
       </c>
@@ -17307,7 +17306,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="588" spans="1:24" ht="15.75" customHeight="1">
+    <row r="588" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="9">
         <v>2357</v>
       </c>
@@ -17343,7 +17342,7 @@
       <c r="W588" s="7"/>
       <c r="X588" s="7"/>
     </row>
-    <row r="589" spans="1:24" ht="15.75" customHeight="1">
+    <row r="589" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="9">
         <v>2600</v>
       </c>
@@ -17361,7 +17360,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="590" spans="1:24" ht="15.75" customHeight="1">
+    <row r="590" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="9">
         <v>2380</v>
       </c>
@@ -17379,7 +17378,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="591" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="591" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="9">
         <v>2389</v>
       </c>
@@ -17415,7 +17414,7 @@
       <c r="W591" s="2"/>
       <c r="X591" s="2"/>
     </row>
-    <row r="592" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="592" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="9">
         <v>2390</v>
       </c>
@@ -17433,7 +17432,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="593" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="593" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="9">
         <v>2400</v>
       </c>
@@ -17451,7 +17450,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="594" spans="1:24" ht="15.75" customHeight="1">
+    <row r="594" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="9">
         <v>2601</v>
       </c>
@@ -17467,7 +17466,7 @@
       </c>
       <c r="F594" s="10"/>
     </row>
-    <row r="595" spans="1:24" ht="15.75" customHeight="1">
+    <row r="595" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="9">
         <v>2590</v>
       </c>
@@ -17485,7 +17484,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="596" spans="1:24" ht="15.75" customHeight="1">
+    <row r="596" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="9">
         <v>2610</v>
       </c>
@@ -17503,7 +17502,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="597" spans="1:24" ht="15.75" customHeight="1">
+    <row r="597" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="9">
         <v>2583</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="598" spans="1:24" ht="15.75" customHeight="1">
+    <row r="598" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="9">
         <v>2584</v>
       </c>
@@ -17539,7 +17538,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="599" spans="1:24" ht="15.75" customHeight="1">
+    <row r="599" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="9">
         <v>2585</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="600" spans="1:24" ht="15.75" customHeight="1">
+    <row r="600" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="9">
         <v>2586</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="601" spans="1:24" ht="15.75" customHeight="1">
+    <row r="601" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="9">
         <v>2587</v>
       </c>
@@ -17593,7 +17592,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="602" spans="1:24" ht="15.75" customHeight="1">
+    <row r="602" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="9">
         <v>2613</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="603" spans="1:24" ht="15.75" customHeight="1">
+    <row r="603" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="9">
         <v>2615</v>
       </c>
@@ -17629,7 +17628,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="604" spans="1:24" ht="15.75" customHeight="1">
+    <row r="604" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="9">
         <v>2616</v>
       </c>
@@ -17647,7 +17646,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="605" spans="1:24" ht="15.75" customHeight="1">
+    <row r="605" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="9">
         <v>2618</v>
       </c>
@@ -17665,7 +17664,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="606" spans="1:24" ht="15.75" customHeight="1">
+    <row r="606" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="9">
         <v>2625</v>
       </c>
@@ -17683,7 +17682,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="607" spans="1:24" ht="14.45">
+    <row r="607" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A607" s="9">
         <v>2581</v>
       </c>
@@ -17719,7 +17718,7 @@
       <c r="W607" s="5"/>
       <c r="X607" s="5"/>
     </row>
-    <row r="608" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="608" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="9">
         <v>2406</v>
       </c>
@@ -17735,7 +17734,7 @@
       </c>
       <c r="F608" s="10"/>
     </row>
-    <row r="609" spans="1:24" ht="15.75" customHeight="1">
+    <row r="609" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="9">
         <v>2427</v>
       </c>
@@ -17771,7 +17770,7 @@
       <c r="W609" s="7"/>
       <c r="X609" s="7"/>
     </row>
-    <row r="610" spans="1:24" ht="15.75" customHeight="1">
+    <row r="610" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="9">
         <v>2626</v>
       </c>
@@ -17789,7 +17788,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="611" spans="1:24" ht="15.75" customHeight="1">
+    <row r="611" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="9">
         <v>2627</v>
       </c>
@@ -17807,7 +17806,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="612" spans="1:24" ht="15.75" customHeight="1">
+    <row r="612" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="9">
         <v>2628</v>
       </c>
@@ -17825,7 +17824,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="613" spans="1:24" ht="15.75" customHeight="1">
+    <row r="613" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="9">
         <v>2630</v>
       </c>
@@ -17841,7 +17840,7 @@
       </c>
       <c r="F613" s="10"/>
     </row>
-    <row r="614" spans="1:24" ht="15.75" customHeight="1">
+    <row r="614" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="9">
         <v>2639</v>
       </c>
@@ -17859,7 +17858,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="615" spans="1:24" ht="15.75" customHeight="1">
+    <row r="615" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="9">
         <v>2642</v>
       </c>
@@ -17877,7 +17876,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="616" spans="1:24" ht="15.75" customHeight="1">
+    <row r="616" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="9">
         <v>2660</v>
       </c>
@@ -17895,7 +17894,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="617" spans="1:24" ht="15.75" customHeight="1">
+    <row r="617" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="9" t="s">
         <v>1517</v>
       </c>
@@ -17913,7 +17912,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="618" spans="1:24" ht="15.75" customHeight="1">
+    <row r="618" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="9" t="s">
         <v>1520</v>
       </c>
@@ -17931,7 +17930,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="619" spans="1:24" ht="15.75" customHeight="1">
+    <row r="619" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="9" t="s">
         <v>1522</v>
       </c>
@@ -17949,7 +17948,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="620" spans="1:24" ht="15.75" customHeight="1">
+    <row r="620" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="9" t="s">
         <v>1524</v>
       </c>
@@ -17967,7 +17966,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="621" spans="1:24" ht="15.75" customHeight="1">
+    <row r="621" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="9">
         <v>2603</v>
       </c>
@@ -17985,7 +17984,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="622" spans="1:24" ht="15.75" customHeight="1">
+    <row r="622" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="9">
         <v>2650</v>
       </c>
@@ -18001,7 +18000,7 @@
       </c>
       <c r="F622" s="10"/>
     </row>
-    <row r="623" spans="1:24" ht="15.75" customHeight="1">
+    <row r="623" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="9">
         <v>2653</v>
       </c>
@@ -18019,7 +18018,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="624" spans="1:24" ht="15.75" customHeight="1">
+    <row r="624" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="9">
         <v>2654</v>
       </c>
@@ -18037,7 +18036,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="625" spans="1:24" ht="15.75" customHeight="1">
+    <row r="625" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="9">
         <v>2659</v>
       </c>
@@ -18053,7 +18052,7 @@
       </c>
       <c r="F625" s="10"/>
     </row>
-    <row r="626" spans="1:24" ht="15.75" customHeight="1">
+    <row r="626" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="9">
         <v>2597</v>
       </c>
@@ -18069,7 +18068,7 @@
       </c>
       <c r="F626" s="10"/>
     </row>
-    <row r="627" spans="1:24" ht="15.75" customHeight="1">
+    <row r="627" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="9">
         <v>2598</v>
       </c>
@@ -18085,7 +18084,7 @@
       </c>
       <c r="F627" s="10"/>
     </row>
-    <row r="628" spans="1:24" ht="15.75" customHeight="1">
+    <row r="628" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="9">
         <v>2662</v>
       </c>
@@ -18103,7 +18102,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="629" spans="1:24" ht="15.75" customHeight="1">
+    <row r="629" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="9">
         <v>2665</v>
       </c>
@@ -18121,7 +18120,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="630" spans="1:24" ht="15.75" customHeight="1">
+    <row r="630" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="9">
         <v>2672</v>
       </c>
@@ -18137,7 +18136,7 @@
       </c>
       <c r="F630" s="10"/>
     </row>
-    <row r="631" spans="1:24" ht="15.75" customHeight="1">
+    <row r="631" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="9">
         <v>2674</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="632" spans="1:24" ht="15.75" customHeight="1">
+    <row r="632" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="9">
         <v>2685</v>
       </c>
@@ -18171,7 +18170,7 @@
       </c>
       <c r="F632" s="10"/>
     </row>
-    <row r="633" spans="1:24" ht="15.75" customHeight="1">
+    <row r="633" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="9">
         <v>2686</v>
       </c>
@@ -18187,7 +18186,7 @@
       </c>
       <c r="F633" s="10"/>
     </row>
-    <row r="634" spans="1:24" ht="15.75" customHeight="1">
+    <row r="634" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="9">
         <v>2687</v>
       </c>
@@ -18203,7 +18202,7 @@
       </c>
       <c r="F634" s="10"/>
     </row>
-    <row r="635" spans="1:24" ht="15.75" customHeight="1">
+    <row r="635" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="9">
         <v>2437</v>
       </c>
@@ -18239,7 +18238,7 @@
       <c r="W635" s="7"/>
       <c r="X635" s="7"/>
     </row>
-    <row r="636" spans="1:24" ht="15.75" customHeight="1">
+    <row r="636" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="9">
         <v>2438</v>
       </c>
@@ -18275,7 +18274,7 @@
       <c r="W636" s="7"/>
       <c r="X636" s="7"/>
     </row>
-    <row r="637" spans="1:24" ht="15.75" customHeight="1">
+    <row r="637" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="9">
         <v>2439</v>
       </c>
@@ -18311,7 +18310,7 @@
       <c r="W637" s="7"/>
       <c r="X637" s="7"/>
     </row>
-    <row r="638" spans="1:24" ht="15.75" customHeight="1">
+    <row r="638" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="9">
         <v>2457</v>
       </c>
@@ -18347,7 +18346,7 @@
       <c r="W638" s="7"/>
       <c r="X638" s="7"/>
     </row>
-    <row r="639" spans="1:24" ht="15.75" customHeight="1">
+    <row r="639" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="9">
         <v>2483</v>
       </c>
@@ -18381,7 +18380,7 @@
       <c r="W639" s="7"/>
       <c r="X639" s="7"/>
     </row>
-    <row r="640" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="640" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="9">
         <v>2488</v>
       </c>
@@ -18417,7 +18416,7 @@
       <c r="W640" s="2"/>
       <c r="X640" s="2"/>
     </row>
-    <row r="641" spans="1:24" ht="15.75" customHeight="1">
+    <row r="641" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="9">
         <v>2489</v>
       </c>
@@ -18453,7 +18452,7 @@
       <c r="W641" s="7"/>
       <c r="X641" s="7"/>
     </row>
-    <row r="642" spans="1:24" ht="15.75" customHeight="1">
+    <row r="642" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="9">
         <v>2496</v>
       </c>
@@ -18489,7 +18488,7 @@
       <c r="W642" s="7"/>
       <c r="X642" s="7"/>
     </row>
-    <row r="643" spans="1:24" ht="15.75" customHeight="1">
+    <row r="643" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="9">
         <v>2521</v>
       </c>
@@ -18505,7 +18504,7 @@
       </c>
       <c r="F643" s="10"/>
     </row>
-    <row r="644" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="644" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="9">
         <v>2529</v>
       </c>
@@ -18541,7 +18540,7 @@
       <c r="W644" s="2"/>
       <c r="X644" s="2"/>
     </row>
-    <row r="645" spans="1:24" ht="15.75" customHeight="1">
+    <row r="645" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="9">
         <v>2691</v>
       </c>
@@ -18559,7 +18558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="646" spans="1:24" ht="15.75" customHeight="1">
+    <row r="646" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="19" t="s">
         <v>1585</v>
       </c>
@@ -18577,7 +18576,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="647" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="647" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="9">
         <v>2589</v>
       </c>
@@ -18595,7 +18594,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="648" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="648" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="9">
         <v>2631</v>
       </c>
@@ -18631,7 +18630,7 @@
       <c r="W648" s="2"/>
       <c r="X648" s="2"/>
     </row>
-    <row r="649" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="649" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="9">
         <v>2634</v>
       </c>
@@ -18647,7 +18646,7 @@
       </c>
       <c r="F649" s="10"/>
     </row>
-    <row r="650" spans="1:24" ht="15.75" customHeight="1">
+    <row r="650" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="9">
         <v>2635</v>
       </c>
@@ -18681,7 +18680,7 @@
       <c r="W650" s="7"/>
       <c r="X650" s="7"/>
     </row>
-    <row r="651" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="651" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="9">
         <v>2636</v>
       </c>
@@ -18697,7 +18696,7 @@
       </c>
       <c r="F651" s="10"/>
     </row>
-    <row r="652" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="652" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="9">
         <v>2637</v>
       </c>
@@ -18733,7 +18732,7 @@
       <c r="W652" s="2"/>
       <c r="X652" s="2"/>
     </row>
-    <row r="653" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="653" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="9">
         <v>2645</v>
       </c>
@@ -18769,7 +18768,7 @@
       <c r="W653" s="2"/>
       <c r="X653" s="2"/>
     </row>
-    <row r="654" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="654" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="9">
         <v>2651</v>
       </c>
@@ -18805,7 +18804,7 @@
       <c r="W654" s="2"/>
       <c r="X654" s="2"/>
     </row>
-    <row r="655" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="655" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="9">
         <v>2656</v>
       </c>
@@ -18823,7 +18822,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="656" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="656" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="9">
         <v>2676</v>
       </c>
@@ -18857,7 +18856,7 @@
       <c r="W656" s="2"/>
       <c r="X656" s="2"/>
     </row>
-    <row r="657" spans="1:24" ht="15.75" customHeight="1">
+    <row r="657" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="9">
         <v>2677</v>
       </c>
@@ -18873,7 +18872,7 @@
       </c>
       <c r="F657" s="10"/>
     </row>
-    <row r="658" spans="1:24" ht="15.75" customHeight="1">
+    <row r="658" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="15">
         <v>2612</v>
       </c>
@@ -18891,7 +18890,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="659" spans="1:24" ht="15.75" customHeight="1">
+    <row r="659" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="9">
         <v>2678</v>
       </c>
@@ -18909,7 +18908,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="660" spans="1:24" ht="15.75" customHeight="1">
+    <row r="660" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="9">
         <v>2679</v>
       </c>
@@ -18927,7 +18926,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="661" spans="1:24" ht="15.75" customHeight="1">
+    <row r="661" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="9">
         <v>2680</v>
       </c>
@@ -18945,7 +18944,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="662" spans="1:24" ht="15.75" customHeight="1">
+    <row r="662" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="9">
         <v>2762</v>
       </c>
@@ -18981,7 +18980,7 @@
       <c r="W662" s="7"/>
       <c r="X662" s="7"/>
     </row>
-    <row r="663" spans="1:24" ht="15.75" customHeight="1">
+    <row r="663" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="9">
         <v>1466</v>
       </c>
@@ -18999,7 +18998,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="664" spans="1:24" ht="15.75" customHeight="1">
+    <row r="664" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="20" t="s">
         <v>1622</v>
       </c>
@@ -19033,7 +19032,7 @@
       <c r="W664" s="7"/>
       <c r="X664" s="7"/>
     </row>
-    <row r="665" spans="1:24" ht="15.75" customHeight="1">
+    <row r="665" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="9" t="s">
         <v>1624</v>
       </c>
@@ -19067,7 +19066,7 @@
       <c r="W665" s="7"/>
       <c r="X665" s="7"/>
     </row>
-    <row r="666" spans="1:24" ht="15.75" customHeight="1">
+    <row r="666" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="9" t="s">
         <v>1626</v>
       </c>
@@ -19101,7 +19100,7 @@
       <c r="W666" s="7"/>
       <c r="X666" s="7"/>
     </row>
-    <row r="667" spans="1:24" ht="15.75" customHeight="1">
+    <row r="667" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="9" t="s">
         <v>1628</v>
       </c>
@@ -19135,7 +19134,7 @@
       <c r="W667" s="7"/>
       <c r="X667" s="7"/>
     </row>
-    <row r="668" spans="1:24" ht="15.75" customHeight="1">
+    <row r="668" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="9" t="s">
         <v>1630</v>
       </c>
@@ -19169,7 +19168,7 @@
       <c r="W668" s="7"/>
       <c r="X668" s="7"/>
     </row>
-    <row r="669" spans="1:24" ht="15.75" customHeight="1">
+    <row r="669" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="9">
         <v>793</v>
       </c>
@@ -19187,7 +19186,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="670" spans="1:24" ht="15.75" customHeight="1">
+    <row r="670" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="22" t="s">
         <v>1633</v>
       </c>
@@ -19205,7 +19204,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="671" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="671" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="15" t="s">
         <v>1637</v>
       </c>
@@ -19241,7 +19240,7 @@
       <c r="W671" s="2"/>
       <c r="X671" s="2"/>
     </row>
-    <row r="672" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="672" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="15" t="s">
         <v>1640</v>
       </c>
@@ -19277,7 +19276,7 @@
       <c r="W672" s="2"/>
       <c r="X672" s="2"/>
     </row>
-    <row r="673" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="673" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="9" t="s">
         <v>1642</v>
       </c>
@@ -19311,7 +19310,7 @@
       <c r="W673" s="2"/>
       <c r="X673" s="2"/>
     </row>
-    <row r="674" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="674" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="9" t="s">
         <v>1645</v>
       </c>
@@ -19345,7 +19344,7 @@
       <c r="W674" s="2"/>
       <c r="X674" s="2"/>
     </row>
-    <row r="675" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="675" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="9" t="s">
         <v>1649</v>
       </c>
@@ -19379,7 +19378,7 @@
       <c r="W675" s="2"/>
       <c r="X675" s="2"/>
     </row>
-    <row r="676" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="676" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="9" t="s">
         <v>1651</v>
       </c>
@@ -19413,7 +19412,7 @@
       <c r="W676" s="2"/>
       <c r="X676" s="2"/>
     </row>
-    <row r="677" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="677" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="9" t="s">
         <v>1653</v>
       </c>
@@ -19447,7 +19446,7 @@
       <c r="W677" s="2"/>
       <c r="X677" s="2"/>
     </row>
-    <row r="678" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="678" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="9" t="s">
         <v>1655</v>
       </c>
@@ -19481,7 +19480,7 @@
       <c r="W678" s="2"/>
       <c r="X678" s="2"/>
     </row>
-    <row r="679" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="679" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="20" t="s">
         <v>1657</v>
       </c>
@@ -19501,7 +19500,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="680" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="680" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="9" t="s">
         <v>1660</v>
       </c>
@@ -19521,7 +19520,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="681" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="681" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="9" t="s">
         <v>1663</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="682" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="682" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="9" t="s">
         <v>1666</v>
       </c>
@@ -19561,7 +19560,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="683" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="683" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="9" t="s">
         <v>1669</v>
       </c>
@@ -19581,7 +19580,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="684" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="684" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="9" t="s">
         <v>1671</v>
       </c>
@@ -19601,7 +19600,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="685" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="685" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="9" t="s">
         <v>1673</v>
       </c>
@@ -19621,7 +19620,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="686" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="686" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="9" t="s">
         <v>1675</v>
       </c>
@@ -19641,7 +19640,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="687" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="687" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="9" t="s">
         <v>1677</v>
       </c>
@@ -19661,7 +19660,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="688" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="688" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="9" t="s">
         <v>1680</v>
       </c>
@@ -19681,7 +19680,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="689" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="689" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="9" t="s">
         <v>1682</v>
       </c>
@@ -19701,7 +19700,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="690" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="690" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="20" t="s">
         <v>1685</v>
       </c>
@@ -19721,7 +19720,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="691" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="691" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="9" t="s">
         <v>1687</v>
       </c>
@@ -19741,7 +19740,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="692" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="692" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="26" t="s">
         <v>1690</v>
       </c>
@@ -19761,7 +19760,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="693" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="693" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="9" t="s">
         <v>1693</v>
       </c>
@@ -19781,7 +19780,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="694" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="694" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="9" t="s">
         <v>1695</v>
       </c>
@@ -19801,7 +19800,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="695" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="695" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="9" t="s">
         <v>1698</v>
       </c>
@@ -19821,7 +19820,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="696" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="696" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="9" t="s">
         <v>1700</v>
       </c>
@@ -19841,7 +19840,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="697" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="697" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="20" t="s">
         <v>1703</v>
       </c>
@@ -19861,7 +19860,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="698" spans="1:24" ht="15.75" customHeight="1">
+    <row r="698" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="9" t="s">
         <v>1706</v>
       </c>
@@ -19899,7 +19898,7 @@
       <c r="W698" s="7"/>
       <c r="X698" s="7"/>
     </row>
-    <row r="699" spans="1:24" ht="15.75" customHeight="1">
+    <row r="699" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="9" t="s">
         <v>1708</v>
       </c>
@@ -19915,7 +19914,7 @@
       </c>
       <c r="F699" s="24"/>
     </row>
-    <row r="700" spans="1:24" ht="15.75" customHeight="1">
+    <row r="700" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="22" t="s">
         <v>1711</v>
       </c>
@@ -19931,7 +19930,7 @@
       </c>
       <c r="F700" s="23"/>
     </row>
-    <row r="701" spans="1:24" ht="15.75" customHeight="1">
+    <row r="701" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="9" t="s">
         <v>1715</v>
       </c>
@@ -19967,7 +19966,7 @@
       <c r="W701" s="7"/>
       <c r="X701" s="7"/>
     </row>
-    <row r="702" spans="1:24" ht="15.75" customHeight="1">
+    <row r="702" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="15" t="s">
         <v>1717</v>
       </c>
@@ -20001,7 +20000,7 @@
       <c r="W702" s="7"/>
       <c r="X702" s="7"/>
     </row>
-    <row r="703" spans="1:24" ht="15.75" customHeight="1">
+    <row r="703" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="15" t="s">
         <v>1719</v>
       </c>
@@ -20035,7 +20034,7 @@
       <c r="W703" s="7"/>
       <c r="X703" s="7"/>
     </row>
-    <row r="704" spans="1:24" ht="15.75" customHeight="1">
+    <row r="704" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="9" t="s">
         <v>1721</v>
       </c>
@@ -20053,7 +20052,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="705" spans="1:24" ht="15.75" customHeight="1">
+    <row r="705" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="15" t="s">
         <v>1725</v>
       </c>
@@ -20089,7 +20088,7 @@
       <c r="W705" s="7"/>
       <c r="X705" s="7"/>
     </row>
-    <row r="706" spans="1:24" ht="15.75" customHeight="1">
+    <row r="706" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="22" t="s">
         <v>1727</v>
       </c>
@@ -20105,7 +20104,7 @@
       </c>
       <c r="F706" s="23"/>
     </row>
-    <row r="707" spans="1:24" ht="15.75" customHeight="1">
+    <row r="707" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="15">
         <v>2441</v>
       </c>
@@ -20123,7 +20122,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="708" spans="1:24" ht="15.75" customHeight="1">
+    <row r="708" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="15">
         <v>1134</v>
       </c>
@@ -20141,7 +20140,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="709" spans="1:24" ht="15.75" customHeight="1">
+    <row r="709" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="15">
         <v>2218</v>
       </c>
@@ -20159,7 +20158,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="710" spans="1:24" ht="15.75" customHeight="1">
+    <row r="710" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="15">
         <v>1897</v>
       </c>
@@ -20177,7 +20176,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="711" spans="1:24" ht="15.75" customHeight="1">
+    <row r="711" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="15">
         <v>1938</v>
       </c>
@@ -20193,7 +20192,7 @@
       </c>
       <c r="F711" s="8"/>
     </row>
-    <row r="712" spans="1:24" ht="15.75" customHeight="1">
+    <row r="712" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="15">
         <v>1939</v>
       </c>
@@ -20209,7 +20208,7 @@
       </c>
       <c r="F712" s="8"/>
     </row>
-    <row r="713" spans="1:24" ht="15.75" customHeight="1">
+    <row r="713" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="15">
         <v>1940</v>
       </c>
@@ -20225,7 +20224,7 @@
       </c>
       <c r="F713" s="8"/>
     </row>
-    <row r="714" spans="1:24" ht="15.75" customHeight="1">
+    <row r="714" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="15">
         <v>1941</v>
       </c>
@@ -20241,7 +20240,7 @@
       </c>
       <c r="F714" s="8"/>
     </row>
-    <row r="715" spans="1:24" ht="15.75" customHeight="1">
+    <row r="715" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="15">
         <v>1645</v>
       </c>
@@ -20259,7 +20258,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="716" spans="1:24" ht="15.75" customHeight="1">
+    <row r="716" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="15">
         <v>1859</v>
       </c>
@@ -20277,7 +20276,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="717" spans="1:24" ht="15.75" customHeight="1">
+    <row r="717" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="15">
         <v>1801</v>
       </c>
@@ -20295,7 +20294,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="718" spans="1:24" ht="15.75" customHeight="1">
+    <row r="718" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="15">
         <v>1876</v>
       </c>
@@ -20313,7 +20312,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="719" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="719" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="15">
         <v>581</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="720" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="720" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="15">
         <v>1152</v>
       </c>
@@ -20349,7 +20348,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="721" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="721" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="15">
         <v>1852</v>
       </c>
@@ -20367,7 +20366,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="722" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="722" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="15">
         <v>938</v>
       </c>
@@ -20385,7 +20384,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="723" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="723" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="15">
         <v>1831</v>
       </c>
@@ -20403,7 +20402,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="15.75" customHeight="1">
+    <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="15" t="s">
         <v>1769</v>
       </c>
@@ -20419,7 +20418,7 @@
       </c>
       <c r="F724" s="8"/>
     </row>
-    <row r="725" spans="1:6" ht="15.75" customHeight="1">
+    <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="15" t="s">
         <v>1771</v>
       </c>
@@ -20435,7 +20434,7 @@
       </c>
       <c r="F725" s="8"/>
     </row>
-    <row r="726" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="726" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="15">
         <v>2657</v>
       </c>
@@ -20453,7 +20452,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="727" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="727" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="15" t="s">
         <v>1777</v>
       </c>
@@ -20471,7 +20470,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="728" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="728" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="15" t="s">
         <v>1782</v>
       </c>
@@ -20489,7 +20488,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="15.75" customHeight="1">
+    <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="22" t="s">
         <v>1785</v>
       </c>
@@ -20505,7 +20504,7 @@
       </c>
       <c r="F729" s="28"/>
     </row>
-    <row r="730" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="730" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="15">
         <v>1150</v>
       </c>
@@ -20523,7 +20522,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="731" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1">
+    <row r="731" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="15">
         <v>1637</v>
       </c>
@@ -20541,7 +20540,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="15.75" customHeight="1">
+    <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="15">
         <v>1479</v>
       </c>
@@ -20574,18 +20573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4816bd95-4284-4c65-a343-fbbfe3c79838">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0f439937-ee6a-4379-a5d5-430fe2261004" xsi:nil="true"/>
-    <StockShowRelated xmlns="4816bd95-4284-4c65-a343-fbbfe3c79838">false</StockShowRelated>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081AD44C0CBEB304E93E820FB24B13251" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f73d017c857550f142d63a5bbe9cecd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4816bd95-4284-4c65-a343-fbbfe3c79838" xmlns:ns3="0f439937-ee6a-4379-a5d5-430fe2261004" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bd163e8bb288cd9cbd6306fe34550d6" ns2:_="" ns3:_="">
     <xsd:import namespace="4816bd95-4284-4c65-a343-fbbfe3c79838"/>
@@ -20804,6 +20791,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4816bd95-4284-4c65-a343-fbbfe3c79838">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0f439937-ee6a-4379-a5d5-430fe2261004" xsi:nil="true"/>
+    <StockShowRelated xmlns="4816bd95-4284-4c65-a343-fbbfe3c79838">false</StockShowRelated>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20814,13 +20813,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA287DF-30BA-4005-9E0E-99E3610E1970}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B26834-4ABB-4256-91CE-836771E25A26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4816bd95-4284-4c65-a343-fbbfe3c79838"/>
+    <ds:schemaRef ds:uri="0f439937-ee6a-4379-a5d5-430fe2261004"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11B26834-4ABB-4256-91CE-836771E25A26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA287DF-30BA-4005-9E0E-99E3610E1970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4816bd95-4284-4c65-a343-fbbfe3c79838"/>
+    <ds:schemaRef ds:uri="0f439937-ee6a-4379-a5d5-430fe2261004"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A26DDF-9B1D-4A1E-ACF7-F938E65951E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A26DDF-9B1D-4A1E-ACF7-F938E65951E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/Users List.xlsx
+++ b/public/Users List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NW26\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF88E4E-DF1D-47E3-8137-66C3D29E244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4EDD7A-4925-42CA-83FF-872E4A4AB00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1788">
   <si>
     <t>GIFT ID</t>
   </si>
@@ -4972,24 +4971,12 @@
     <t>Mimi</t>
   </si>
   <si>
-    <t>Liedke</t>
-  </si>
-  <si>
-    <t>Mimi Liedkte</t>
-  </si>
-  <si>
     <t>NO ID2 Mimi</t>
   </si>
   <si>
-    <t>J. Hugh Liedkte</t>
-  </si>
-  <si>
     <t>NO ID3 Mimi</t>
   </si>
   <si>
-    <t>Lark Liedkte</t>
-  </si>
-  <si>
     <t>PHC1</t>
   </si>
   <si>
@@ -5405,6 +5392,15 @@
   </si>
   <si>
     <t>**BLANK BRICK** ID# shown on layout plan; brick to be engraved at a future date</t>
+  </si>
+  <si>
+    <t>Lark Liedtke</t>
+  </si>
+  <si>
+    <t>J. Hugh Liedtke</t>
+  </si>
+  <si>
+    <t>Mimi Liedtke</t>
   </si>
 </sst>
 </file>
@@ -5819,8 +5815,8 @@
   </sheetPr>
   <dimension ref="A1:Z729"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A526" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D526" sqref="D526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19268,10 +19264,10 @@
         <v>1643</v>
       </c>
       <c r="D671" s="10" t="s">
-        <v>1644</v>
+        <v>1332</v>
       </c>
       <c r="E671" s="10" t="s">
-        <v>1645</v>
+        <v>1787</v>
       </c>
       <c r="F671" s="10"/>
       <c r="G671" s="2"/>
@@ -19295,17 +19291,17 @@
     </row>
     <row r="672" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="9" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B672" s="8"/>
       <c r="C672" s="10" t="s">
         <v>1643</v>
       </c>
       <c r="D672" s="10" t="s">
-        <v>1644</v>
+        <v>1332</v>
       </c>
       <c r="E672" s="10" t="s">
-        <v>1647</v>
+        <v>1786</v>
       </c>
       <c r="F672" s="10"/>
       <c r="G672" s="2"/>
@@ -19329,17 +19325,17 @@
     </row>
     <row r="673" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="9" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="B673" s="8"/>
       <c r="C673" s="10" t="s">
         <v>1643</v>
       </c>
       <c r="D673" s="10" t="s">
-        <v>1644</v>
+        <v>1332</v>
       </c>
       <c r="E673" s="10" t="s">
-        <v>1649</v>
+        <v>1785</v>
       </c>
       <c r="F673" s="10"/>
       <c r="G673" s="2"/>
@@ -19363,7 +19359,7 @@
     </row>
     <row r="674" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="9" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="B674" s="23"/>
       <c r="C674" s="24" t="s">
@@ -19373,7 +19369,7 @@
         <v>23</v>
       </c>
       <c r="E674" s="23" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="F674" s="23"/>
       <c r="G674" s="2"/>
@@ -19397,7 +19393,7 @@
     </row>
     <row r="675" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="9" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B675" s="23"/>
       <c r="C675" s="24" t="s">
@@ -19407,7 +19403,7 @@
         <v>1286</v>
       </c>
       <c r="E675" s="23" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="F675" s="23"/>
       <c r="G675" s="2"/>
@@ -19431,7 +19427,7 @@
     </row>
     <row r="676" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="19" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B676" s="19">
         <v>1</v>
@@ -19443,15 +19439,15 @@
         <v>126</v>
       </c>
       <c r="E676" s="20" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="F676" s="20" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="677" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="9" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B677" s="9">
         <v>10</v>
@@ -19463,15 +19459,15 @@
         <v>126</v>
       </c>
       <c r="E677" s="10" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="F677" s="10" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="678" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="9" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B678" s="9">
         <v>11</v>
@@ -19483,15 +19479,15 @@
         <v>126</v>
       </c>
       <c r="E678" s="10" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="F678" s="10" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="679" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="9" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="B679" s="9">
         <v>12</v>
@@ -19503,15 +19499,15 @@
         <v>126</v>
       </c>
       <c r="E679" s="10" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="F679" s="10" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="680" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="9" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="B680" s="9">
         <v>13</v>
@@ -19523,15 +19519,15 @@
         <v>126</v>
       </c>
       <c r="E680" s="10" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="F680" s="10" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="681" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="9" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B681" s="9">
         <v>14</v>
@@ -19543,15 +19539,15 @@
         <v>126</v>
       </c>
       <c r="E681" s="10" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="F681" s="10" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="682" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="9" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="B682" s="9">
         <v>15</v>
@@ -19563,15 +19559,15 @@
         <v>126</v>
       </c>
       <c r="E682" s="10" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="F682" s="10" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="683" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="9" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="B683" s="9">
         <v>16</v>
@@ -19583,15 +19579,15 @@
         <v>126</v>
       </c>
       <c r="E683" s="10" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="F683" s="10" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="684" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="9" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="B684" s="9">
         <v>17</v>
@@ -19603,15 +19599,15 @@
         <v>126</v>
       </c>
       <c r="E684" s="10" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="F684" s="10" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="685" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="9" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="B685" s="9">
         <v>18</v>
@@ -19623,15 +19619,15 @@
         <v>126</v>
       </c>
       <c r="E685" s="10" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="F685" s="10" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="686" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="9" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="B686" s="9">
         <v>19</v>
@@ -19643,15 +19639,15 @@
         <v>126</v>
       </c>
       <c r="E686" s="10" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="F686" s="10" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="687" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="19" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="B687" s="19">
         <v>2</v>
@@ -19663,15 +19659,15 @@
         <v>126</v>
       </c>
       <c r="E687" s="20" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="F687" s="20" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="688" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="9" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B688" s="9">
         <v>20</v>
@@ -19683,15 +19679,15 @@
         <v>126</v>
       </c>
       <c r="E688" s="10" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="F688" s="10" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="689" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="25" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="B689" s="25">
         <v>3</v>
@@ -19703,15 +19699,15 @@
         <v>126</v>
       </c>
       <c r="E689" s="26" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="F689" s="26" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="690" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="9" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="B690" s="9">
         <v>4</v>
@@ -19723,15 +19719,15 @@
         <v>126</v>
       </c>
       <c r="E690" s="10" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="F690" s="10" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="691" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="9" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B691" s="9">
         <v>5</v>
@@ -19743,15 +19739,15 @@
         <v>126</v>
       </c>
       <c r="E691" s="10" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="F691" s="10" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="692" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="9" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="B692" s="9">
         <v>6</v>
@@ -19763,15 +19759,15 @@
         <v>126</v>
       </c>
       <c r="E692" s="10" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="F692" s="10" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="693" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="9" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="B693" s="9">
         <v>7</v>
@@ -19783,15 +19779,15 @@
         <v>126</v>
       </c>
       <c r="E693" s="10" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="F693" s="10" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="694" spans="1:24" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="19" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="B694" s="19">
         <v>8</v>
@@ -19803,15 +19799,15 @@
         <v>126</v>
       </c>
       <c r="E694" s="20" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="F694" s="20" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="695" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="9" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="B695" s="9">
         <v>9</v>
@@ -19823,10 +19819,10 @@
         <v>126</v>
       </c>
       <c r="E695" s="10" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="F695" s="10" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="G695" s="7"/>
       <c r="H695" s="7"/>
@@ -19849,39 +19845,39 @@
     </row>
     <row r="696" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="9" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="B696" s="23"/>
       <c r="C696" s="24" t="s">
         <v>378</v>
       </c>
       <c r="D696" s="24" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="E696" s="23" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="F696" s="23"/>
     </row>
     <row r="697" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="21" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="B697" s="22"/>
       <c r="C697" s="20" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="D697" s="20" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="E697" s="20" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="F697" s="22"/>
     </row>
     <row r="698" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="9" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B698" s="8"/>
       <c r="C698" s="10" t="s">
@@ -19891,7 +19887,7 @@
         <v>301</v>
       </c>
       <c r="E698" s="10" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="F698" s="10" t="s">
         <v>301</v>
@@ -19917,7 +19913,7 @@
     </row>
     <row r="699" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="14" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B699" s="8"/>
       <c r="C699" s="10" t="s">
@@ -19927,7 +19923,7 @@
         <v>733</v>
       </c>
       <c r="E699" s="10" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="F699" s="10"/>
       <c r="G699" s="7"/>
@@ -19951,7 +19947,7 @@
     </row>
     <row r="700" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="14" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B700" s="8"/>
       <c r="C700" s="10" t="s">
@@ -19961,7 +19957,7 @@
         <v>733</v>
       </c>
       <c r="E700" s="10" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="F700" s="10"/>
       <c r="G700" s="7"/>
@@ -19985,17 +19981,17 @@
     </row>
     <row r="701" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="9" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="B701" s="23"/>
       <c r="C701" s="24" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E701" s="23" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="F701" s="10" t="s">
         <v>177</v>
@@ -20003,7 +19999,7 @@
     </row>
     <row r="702" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="14" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="B702" s="8"/>
       <c r="C702" s="10" t="s">
@@ -20013,7 +20009,7 @@
         <v>733</v>
       </c>
       <c r="E702" s="10" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="F702" s="10" t="s">
         <v>733</v>
@@ -20039,17 +20035,17 @@
     </row>
     <row r="703" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="21" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="B703" s="22"/>
       <c r="C703" s="22" t="s">
         <v>144</v>
       </c>
       <c r="D703" s="22" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E703" s="22" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="F703" s="22"/>
     </row>
@@ -20059,16 +20055,16 @@
       </c>
       <c r="B704" s="8"/>
       <c r="C704" s="10" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="D704" s="10" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="E704" s="23" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="F704" s="23" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20080,13 +20076,13 @@
         <v>71</v>
       </c>
       <c r="D705" s="10" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="E705" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F705" s="10" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20101,7 +20097,7 @@
         <v>567</v>
       </c>
       <c r="E706" s="10" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="F706" s="10" t="s">
         <v>567</v>
@@ -20116,13 +20112,13 @@
         <v>775</v>
       </c>
       <c r="D707" s="10" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="E707" s="10" t="s">
         <v>705</v>
       </c>
       <c r="F707" s="10" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20134,10 +20130,10 @@
         <v>144</v>
       </c>
       <c r="D708" s="10" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E708" s="10" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="F708" s="8"/>
     </row>
@@ -20150,10 +20146,10 @@
         <v>144</v>
       </c>
       <c r="D709" s="10" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E709" s="10" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="F709" s="8"/>
     </row>
@@ -20166,10 +20162,10 @@
         <v>144</v>
       </c>
       <c r="D710" s="10" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E710" s="10" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="F710" s="8"/>
     </row>
@@ -20182,10 +20178,10 @@
         <v>144</v>
       </c>
       <c r="D711" s="10" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="E711" s="10" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="F711" s="8"/>
     </row>
@@ -20195,16 +20191,16 @@
       </c>
       <c r="B712" s="8"/>
       <c r="C712" s="10" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D712" s="10" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="E712" s="10" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="F712" s="10" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20216,13 +20212,13 @@
         <v>892</v>
       </c>
       <c r="D713" s="10" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="E713" s="10" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="F713" s="10" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20231,16 +20227,16 @@
       </c>
       <c r="B714" s="8"/>
       <c r="C714" s="10" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D714" s="10" t="s">
         <v>1608</v>
       </c>
       <c r="E714" s="10" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="F714" s="10" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20255,7 +20251,7 @@
         <v>1571</v>
       </c>
       <c r="E715" s="10" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F715" s="10" t="s">
         <v>177</v>
@@ -20267,16 +20263,16 @@
       </c>
       <c r="B716" s="8"/>
       <c r="C716" s="8" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D716" s="8" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="E716" s="8" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="F716" s="8" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="717" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20285,16 +20281,16 @@
       </c>
       <c r="B717" s="8"/>
       <c r="C717" s="8" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D717" s="8" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="E717" s="8" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F717" s="8" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="718" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20309,10 +20305,10 @@
         <v>195</v>
       </c>
       <c r="E718" s="8" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="F718" s="8" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="719" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20321,16 +20317,16 @@
       </c>
       <c r="B719" s="8"/>
       <c r="C719" s="8" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="D719" s="8" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="E719" s="8" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="F719" s="8" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="720" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20339,7 +20335,7 @@
       </c>
       <c r="B720" s="8"/>
       <c r="C720" s="8" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="D720" s="8" t="s">
         <v>307</v>
@@ -20348,12 +20344,12 @@
         <v>307</v>
       </c>
       <c r="F720" s="8" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="14" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="B721" s="8"/>
       <c r="C721" s="8" t="s">
@@ -20363,13 +20359,13 @@
         <v>498</v>
       </c>
       <c r="E721" s="8" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="F721" s="8"/>
     </row>
     <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="14" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="B722" s="8"/>
       <c r="C722" s="8" t="s">
@@ -20379,7 +20375,7 @@
         <v>19</v>
       </c>
       <c r="E722" s="8" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="F722" s="8"/>
     </row>
@@ -20389,57 +20385,57 @@
       </c>
       <c r="B723" s="8"/>
       <c r="C723" s="8" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D723" s="8" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="E723" s="8" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="F723" s="8" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="724" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="14" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="B724" s="8"/>
       <c r="C724" s="10" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="D724" s="10" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="E724" s="23" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="F724" s="10" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="725" spans="1:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="14" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="B725" s="8"/>
       <c r="C725" s="10" t="s">
         <v>1269</v>
       </c>
       <c r="D725" s="10" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="E725" s="23" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="F725" s="10" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="21" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="B726" s="22"/>
       <c r="C726" s="20" t="s">
@@ -20449,7 +20445,7 @@
         <v>922</v>
       </c>
       <c r="E726" s="27" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="F726" s="27"/>
     </row>
@@ -20465,7 +20461,7 @@
         <v>79</v>
       </c>
       <c r="E727" s="10" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="F727" s="10" t="s">
         <v>79</v>
@@ -20477,13 +20473,13 @@
       </c>
       <c r="B728" s="8"/>
       <c r="C728" s="10" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="D728" s="10" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="E728" s="10" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="F728" s="10" t="s">
         <v>177</v>
@@ -20501,7 +20497,7 @@
         <v>412</v>
       </c>
       <c r="E729" s="29" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="F729" s="29"/>
     </row>

--- a/public/Users List.xlsx
+++ b/public/Users List.xlsx
@@ -5164,7 +5164,7 @@
     <t xml:space="preserve">Buzz Yancey</t>
   </si>
   <si>
-    <t xml:space="preserve">NO ID4 James &amp; Johnne</t>
+    <t xml:space="preserve">NOID 4 James &amp; Johnne</t>
   </si>
   <si>
     <t xml:space="preserve">James and Johnné</t>
@@ -5561,19 +5561,17 @@
   <fonts count="7">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -5583,16 +5581,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10.000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -5669,7 +5667,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5680,10 +5678,10 @@
     </xf>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5694,58 +5692,61 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -20317,7 +20318,7 @@
       <c r="F697" s="26"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="14" t="s">
+      <c r="A698" s="31" t="s">
         <v>1714</v>
       </c>
       <c r="B698" s="7"/>
@@ -20885,10 +20886,10 @@
       <c r="D726" s="24" t="s">
         <v>923</v>
       </c>
-      <c r="E726" s="31" t="s">
+      <c r="E726" s="32" t="s">
         <v>1785</v>
       </c>
-      <c r="F726" s="31"/>
+      <c r="F726" s="32"/>
     </row>
     <row r="727" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A727" s="6">
@@ -21184,10 +21185,10 @@
       <c r="D744" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="E744" s="32" t="s">
+      <c r="E744" s="33" t="s">
         <v>1828</v>
       </c>
-      <c r="F744" s="32" t="s">
+      <c r="F744" s="33" t="s">
         <v>1829</v>
       </c>
     </row>

--- a/public/Users List.xlsx
+++ b/public/Users List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1843">
   <si>
     <t xml:space="preserve">GIFT ID</t>
   </si>
@@ -4958,9 +4958,6 @@
   </si>
   <si>
     <t>Mimi</t>
-  </si>
-  <si>
-    <t>Liedke</t>
   </si>
   <si>
     <t xml:space="preserve">Mimi Liedkte</t>
@@ -6254,7 +6251,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="A661" zoomScale="84" workbookViewId="0">
       <selection activeCell="E370" activeCellId="0" sqref="E370"/>
     </sheetView>
   </sheetViews>
@@ -19706,10 +19703,10 @@
         <v>1645</v>
       </c>
       <c r="D671" s="15" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E671" s="15" t="s">
         <v>1646</v>
-      </c>
-      <c r="E671" s="15" t="s">
-        <v>1647</v>
       </c>
       <c r="F671" s="15"/>
       <c r="G671" s="1"/>
@@ -19733,17 +19730,17 @@
     </row>
     <row r="672" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A672" s="14" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B672" s="7"/>
       <c r="C672" s="15" t="s">
         <v>1645</v>
       </c>
       <c r="D672" s="15" t="s">
-        <v>1646</v>
+        <v>1334</v>
       </c>
       <c r="E672" s="15" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F672" s="15"/>
       <c r="G672" s="1"/>
@@ -19767,17 +19764,17 @@
     </row>
     <row r="673" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A673" s="14" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B673" s="7"/>
       <c r="C673" s="15" t="s">
         <v>1645</v>
       </c>
       <c r="D673" s="15" t="s">
-        <v>1646</v>
+        <v>1334</v>
       </c>
       <c r="E673" s="15" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F673" s="15"/>
       <c r="G673" s="1"/>
@@ -19801,7 +19798,7 @@
     </row>
     <row r="674" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A674" s="14" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B674" s="27"/>
       <c r="C674" s="28" t="s">
@@ -19811,7 +19808,7 @@
         <v>23</v>
       </c>
       <c r="E674" s="27" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F674" s="27"/>
       <c r="G674" s="1"/>
@@ -19835,7 +19832,7 @@
     </row>
     <row r="675" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A675" s="14" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B675" s="27"/>
       <c r="C675" s="28" t="s">
@@ -19845,7 +19842,7 @@
         <v>1288</v>
       </c>
       <c r="E675" s="27" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F675" s="27"/>
       <c r="G675" s="1"/>
@@ -19869,7 +19866,7 @@
     </row>
     <row r="676" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A676" s="23" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B676" s="23">
         <v>1</v>
@@ -19881,15 +19878,15 @@
         <v>126</v>
       </c>
       <c r="E676" s="24" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F676" s="24" t="s">
         <v>1657</v>
-      </c>
-      <c r="F676" s="24" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="677" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A677" s="14" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B677" s="14">
         <v>10</v>
@@ -19901,15 +19898,15 @@
         <v>126</v>
       </c>
       <c r="E677" s="15" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F677" s="15" t="s">
         <v>1660</v>
-      </c>
-      <c r="F677" s="15" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="678" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A678" s="14" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B678" s="14">
         <v>11</v>
@@ -19921,15 +19918,15 @@
         <v>126</v>
       </c>
       <c r="E678" s="15" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F678" s="15" t="s">
         <v>1663</v>
-      </c>
-      <c r="F678" s="15" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="679" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A679" s="14" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B679" s="14">
         <v>12</v>
@@ -19941,15 +19938,15 @@
         <v>126</v>
       </c>
       <c r="E679" s="15" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F679" s="15" t="s">
         <v>1666</v>
-      </c>
-      <c r="F679" s="15" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="680" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A680" s="14" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B680" s="14">
         <v>13</v>
@@ -19961,15 +19958,15 @@
         <v>126</v>
       </c>
       <c r="E680" s="15" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F680" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="681" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A681" s="14" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B681" s="14">
         <v>14</v>
@@ -19981,15 +19978,15 @@
         <v>126</v>
       </c>
       <c r="E681" s="15" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F681" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="682" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A682" s="14" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B682" s="14">
         <v>15</v>
@@ -20001,15 +19998,15 @@
         <v>126</v>
       </c>
       <c r="E682" s="15" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F682" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="683" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A683" s="14" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B683" s="14">
         <v>16</v>
@@ -20021,15 +20018,15 @@
         <v>126</v>
       </c>
       <c r="E683" s="15" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F683" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="684" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A684" s="14" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B684" s="14">
         <v>17</v>
@@ -20041,15 +20038,15 @@
         <v>126</v>
       </c>
       <c r="E684" s="15" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F684" s="15" t="s">
         <v>1677</v>
-      </c>
-      <c r="F684" s="15" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="685" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A685" s="14" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B685" s="14">
         <v>18</v>
@@ -20061,15 +20058,15 @@
         <v>126</v>
       </c>
       <c r="E685" s="15" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F685" s="15" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="686" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A686" s="14" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B686" s="14">
         <v>19</v>
@@ -20081,15 +20078,15 @@
         <v>126</v>
       </c>
       <c r="E686" s="15" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F686" s="15" t="s">
         <v>1682</v>
-      </c>
-      <c r="F686" s="15" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="687" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A687" s="23" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B687" s="23">
         <v>2</v>
@@ -20101,15 +20098,15 @@
         <v>126</v>
       </c>
       <c r="E687" s="24" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F687" s="24" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="688" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A688" s="14" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B688" s="14">
         <v>20</v>
@@ -20121,15 +20118,15 @@
         <v>126</v>
       </c>
       <c r="E688" s="15" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F688" s="15" t="s">
         <v>1687</v>
-      </c>
-      <c r="F688" s="15" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="689" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A689" s="29" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B689" s="29">
         <v>3</v>
@@ -20141,15 +20138,15 @@
         <v>126</v>
       </c>
       <c r="E689" s="30" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F689" s="30" t="s">
         <v>1690</v>
-      </c>
-      <c r="F689" s="30" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="690" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A690" s="14" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B690" s="14">
         <v>4</v>
@@ -20161,15 +20158,15 @@
         <v>126</v>
       </c>
       <c r="E690" s="15" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F690" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="691" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A691" s="14" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B691" s="14">
         <v>5</v>
@@ -20181,15 +20178,15 @@
         <v>126</v>
       </c>
       <c r="E691" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F691" s="15" t="s">
         <v>1695</v>
-      </c>
-      <c r="F691" s="15" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="692" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A692" s="14" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B692" s="14">
         <v>6</v>
@@ -20201,15 +20198,15 @@
         <v>126</v>
       </c>
       <c r="E692" s="15" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F692" s="15" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="693" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A693" s="14" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B693" s="14">
         <v>7</v>
@@ -20221,15 +20218,15 @@
         <v>126</v>
       </c>
       <c r="E693" s="15" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F693" s="15" t="s">
         <v>1700</v>
-      </c>
-      <c r="F693" s="15" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="694" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A694" s="23" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B694" s="23">
         <v>8</v>
@@ -20241,15 +20238,15 @@
         <v>126</v>
       </c>
       <c r="E694" s="24" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F694" s="24" t="s">
         <v>1703</v>
-      </c>
-      <c r="F694" s="24" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="14" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B695" s="14">
         <v>9</v>
@@ -20261,10 +20258,10 @@
         <v>126</v>
       </c>
       <c r="E695" s="15" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F695" s="15" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G695" s="13"/>
       <c r="H695" s="13"/>
@@ -20287,39 +20284,39 @@
     </row>
     <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="14" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B696" s="27"/>
       <c r="C696" s="28" t="s">
         <v>378</v>
       </c>
       <c r="D696" s="28" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E696" s="27" t="s">
         <v>1708</v>
-      </c>
-      <c r="E696" s="27" t="s">
-        <v>1709</v>
       </c>
       <c r="F696" s="27"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="25" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B697" s="26"/>
       <c r="C697" s="24" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D697" s="24" t="s">
         <v>1711</v>
       </c>
-      <c r="D697" s="24" t="s">
+      <c r="E697" s="24" t="s">
         <v>1712</v>
-      </c>
-      <c r="E697" s="24" t="s">
-        <v>1713</v>
       </c>
       <c r="F697" s="26"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="31" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B698" s="7"/>
       <c r="C698" s="15" t="s">
@@ -20329,7 +20326,7 @@
         <v>301</v>
       </c>
       <c r="E698" s="15" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F698" s="15" t="s">
         <v>301</v>
@@ -20355,7 +20352,7 @@
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B699" s="7"/>
       <c r="C699" s="15" t="s">
@@ -20365,7 +20362,7 @@
         <v>733</v>
       </c>
       <c r="E699" s="15" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F699" s="15"/>
       <c r="G699" s="13"/>
@@ -20389,7 +20386,7 @@
     </row>
     <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="6" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B700" s="7"/>
       <c r="C700" s="15" t="s">
@@ -20399,7 +20396,7 @@
         <v>733</v>
       </c>
       <c r="E700" s="15" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F700" s="15"/>
       <c r="G700" s="13"/>
@@ -20423,17 +20420,17 @@
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="14" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B701" s="27"/>
       <c r="C701" s="28" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D701" s="28" t="s">
         <v>1721</v>
       </c>
-      <c r="D701" s="28" t="s">
+      <c r="E701" s="27" t="s">
         <v>1722</v>
-      </c>
-      <c r="E701" s="27" t="s">
-        <v>1723</v>
       </c>
       <c r="F701" s="15" t="s">
         <v>177</v>
@@ -20441,7 +20438,7 @@
     </row>
     <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B702" s="7"/>
       <c r="C702" s="15" t="s">
@@ -20451,7 +20448,7 @@
         <v>733</v>
       </c>
       <c r="E702" s="15" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F702" s="15" t="s">
         <v>733</v>
@@ -20477,17 +20474,17 @@
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="25" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B703" s="26"/>
       <c r="C703" s="26" t="s">
         <v>144</v>
       </c>
       <c r="D703" s="26" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E703" s="26" t="s">
         <v>1727</v>
-      </c>
-      <c r="E703" s="26" t="s">
-        <v>1728</v>
       </c>
       <c r="F703" s="26"/>
     </row>
@@ -20497,16 +20494,16 @@
       </c>
       <c r="B704" s="7"/>
       <c r="C704" s="15" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D704" s="15" t="s">
         <v>1729</v>
       </c>
-      <c r="D704" s="15" t="s">
+      <c r="E704" s="27" t="s">
         <v>1730</v>
       </c>
-      <c r="E704" s="27" t="s">
+      <c r="F704" s="27" t="s">
         <v>1731</v>
-      </c>
-      <c r="F704" s="27" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="705" ht="15.75" customHeight="1">
@@ -20518,13 +20515,13 @@
         <v>71</v>
       </c>
       <c r="D705" s="15" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E705" s="15" t="s">
         <v>71</v>
       </c>
       <c r="F705" s="15" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="706" ht="15.75" customHeight="1">
@@ -20539,7 +20536,7 @@
         <v>567</v>
       </c>
       <c r="E706" s="15" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F706" s="15" t="s">
         <v>567</v>
@@ -20554,13 +20551,13 @@
         <v>775</v>
       </c>
       <c r="D707" s="15" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E707" s="15" t="s">
         <v>705</v>
       </c>
       <c r="F707" s="15" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="708" ht="15.75" customHeight="1">
@@ -20572,10 +20569,10 @@
         <v>144</v>
       </c>
       <c r="D708" s="15" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E708" s="15" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F708" s="7"/>
     </row>
@@ -20588,10 +20585,10 @@
         <v>144</v>
       </c>
       <c r="D709" s="15" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E709" s="15" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F709" s="7"/>
     </row>
@@ -20604,10 +20601,10 @@
         <v>144</v>
       </c>
       <c r="D710" s="15" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E710" s="15" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F710" s="7"/>
     </row>
@@ -20620,10 +20617,10 @@
         <v>144</v>
       </c>
       <c r="D711" s="15" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E711" s="15" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="F711" s="7"/>
     </row>
@@ -20633,16 +20630,16 @@
       </c>
       <c r="B712" s="7"/>
       <c r="C712" s="15" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D712" s="15" t="s">
         <v>1741</v>
       </c>
-      <c r="D712" s="15" t="s">
+      <c r="E712" s="15" t="s">
         <v>1742</v>
       </c>
-      <c r="E712" s="15" t="s">
+      <c r="F712" s="15" t="s">
         <v>1743</v>
-      </c>
-      <c r="F712" s="15" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="713" ht="15.75" customHeight="1">
@@ -20654,13 +20651,13 @@
         <v>893</v>
       </c>
       <c r="D713" s="15" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E713" s="15" t="s">
         <v>1745</v>
       </c>
-      <c r="E713" s="15" t="s">
+      <c r="F713" s="15" t="s">
         <v>1746</v>
-      </c>
-      <c r="F713" s="15" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="714" ht="15.75" customHeight="1">
@@ -20669,16 +20666,16 @@
       </c>
       <c r="B714" s="7"/>
       <c r="C714" s="15" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D714" s="15" t="s">
         <v>1610</v>
       </c>
       <c r="E714" s="15" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F714" s="15" t="s">
         <v>1749</v>
-      </c>
-      <c r="F714" s="15" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="715" ht="15.75" customHeight="1">
@@ -20693,7 +20690,7 @@
         <v>1573</v>
       </c>
       <c r="E715" s="15" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F715" s="15" t="s">
         <v>177</v>
@@ -20705,16 +20702,16 @@
       </c>
       <c r="B716" s="7"/>
       <c r="C716" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D716" s="7" t="s">
         <v>1752</v>
       </c>
-      <c r="D716" s="7" t="s">
+      <c r="E716" s="7" t="s">
         <v>1753</v>
       </c>
-      <c r="E716" s="7" t="s">
+      <c r="F716" s="7" t="s">
         <v>1754</v>
-      </c>
-      <c r="F716" s="7" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="717" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -20723,16 +20720,16 @@
       </c>
       <c r="B717" s="7"/>
       <c r="C717" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D717" s="7" t="s">
         <v>1756</v>
       </c>
-      <c r="D717" s="7" t="s">
+      <c r="E717" s="7" t="s">
         <v>1757</v>
       </c>
-      <c r="E717" s="7" t="s">
+      <c r="F717" s="7" t="s">
         <v>1758</v>
-      </c>
-      <c r="F717" s="7" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="718" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -20747,10 +20744,10 @@
         <v>195</v>
       </c>
       <c r="E718" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F718" s="7" t="s">
         <v>1760</v>
-      </c>
-      <c r="F718" s="7" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="719" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -20759,16 +20756,16 @@
       </c>
       <c r="B719" s="7"/>
       <c r="C719" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D719" s="7" t="s">
         <v>1762</v>
       </c>
-      <c r="D719" s="7" t="s">
+      <c r="E719" s="7" t="s">
         <v>1763</v>
       </c>
-      <c r="E719" s="7" t="s">
+      <c r="F719" s="7" t="s">
         <v>1764</v>
-      </c>
-      <c r="F719" s="7" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="720" s="13" customFormat="1" ht="15.75" customHeight="1">
@@ -20777,7 +20774,7 @@
       </c>
       <c r="B720" s="7"/>
       <c r="C720" s="7" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D720" s="7" t="s">
         <v>307</v>
@@ -20786,12 +20783,12 @@
         <v>307</v>
       </c>
       <c r="F720" s="7" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="6" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B721" s="7"/>
       <c r="C721" s="7" t="s">
@@ -20801,13 +20798,13 @@
         <v>498</v>
       </c>
       <c r="E721" s="7" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="F721" s="7"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B722" s="7"/>
       <c r="C722" s="7" t="s">
@@ -20817,7 +20814,7 @@
         <v>19</v>
       </c>
       <c r="E722" s="7" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F722" s="7"/>
     </row>
@@ -20827,57 +20824,57 @@
       </c>
       <c r="B723" s="7"/>
       <c r="C723" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D723" s="7" t="s">
         <v>1772</v>
       </c>
-      <c r="D723" s="7" t="s">
+      <c r="E723" s="7" t="s">
         <v>1773</v>
       </c>
-      <c r="E723" s="7" t="s">
+      <c r="F723" s="7" t="s">
         <v>1774</v>
-      </c>
-      <c r="F723" s="7" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="724" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A724" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B724" s="7"/>
       <c r="C724" s="15" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D724" s="15" t="s">
         <v>1777</v>
       </c>
-      <c r="D724" s="15" t="s">
+      <c r="E724" s="27" t="s">
         <v>1778</v>
       </c>
-      <c r="E724" s="27" t="s">
+      <c r="F724" s="15" t="s">
         <v>1779</v>
-      </c>
-      <c r="F724" s="15" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="725" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="A725" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B725" s="7"/>
       <c r="C725" s="15" t="s">
         <v>1271</v>
       </c>
       <c r="D725" s="15" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E725" s="27" t="s">
         <v>1782</v>
       </c>
-      <c r="E725" s="27" t="s">
-        <v>1783</v>
-      </c>
       <c r="F725" s="15" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="25" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B726" s="26"/>
       <c r="C726" s="24" t="s">
@@ -20887,7 +20884,7 @@
         <v>923</v>
       </c>
       <c r="E726" s="32" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F726" s="32"/>
     </row>
@@ -20903,7 +20900,7 @@
         <v>79</v>
       </c>
       <c r="E727" s="15" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="F727" s="15" t="s">
         <v>79</v>
@@ -20915,13 +20912,13 @@
       </c>
       <c r="B728" s="7"/>
       <c r="C728" s="15" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D728" s="15" t="s">
         <v>1787</v>
       </c>
-      <c r="D728" s="15" t="s">
+      <c r="E728" s="15" t="s">
         <v>1788</v>
-      </c>
-      <c r="E728" s="15" t="s">
-        <v>1789</v>
       </c>
       <c r="F728" s="15" t="s">
         <v>177</v>
@@ -20939,318 +20936,318 @@
         <v>412</v>
       </c>
       <c r="E729" s="12" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F729" s="12"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C730" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="C730" s="1" t="s">
+      <c r="D730" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="D730" s="1" t="s">
+      <c r="E730" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="E730" s="1" t="s">
+      <c r="F730" s="1" t="s">
         <v>1794</v>
-      </c>
-      <c r="F730" s="1" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E731" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="C731" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D731" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E731" s="1" t="s">
-        <v>1797</v>
-      </c>
       <c r="F731" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E732" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="C732" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D732" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E732" s="1" t="s">
-        <v>1799</v>
-      </c>
       <c r="F732" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E733" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="C733" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D733" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E733" s="1" t="s">
-        <v>1801</v>
-      </c>
       <c r="F733" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E734" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C734" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D734" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E734" s="1" t="s">
-        <v>1803</v>
-      </c>
       <c r="F734" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E735" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="C735" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D735" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E735" s="1" t="s">
-        <v>1805</v>
-      </c>
       <c r="F735" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E736" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="C736" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D736" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E736" s="1" t="s">
-        <v>1807</v>
-      </c>
       <c r="F736" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E737" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="C737" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D737" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E737" s="1" t="s">
-        <v>1809</v>
-      </c>
       <c r="F737" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E738" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="C738" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D738" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E738" s="1" t="s">
-        <v>1811</v>
-      </c>
       <c r="F738" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E739" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="C739" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D739" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E739" s="1" t="s">
-        <v>1813</v>
-      </c>
       <c r="F739" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E740" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="C740" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D740" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="E740" s="1" t="s">
-        <v>1815</v>
-      </c>
       <c r="F740" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C741" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="C741" s="1" t="s">
+      <c r="D741" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="D741" s="1" t="s">
+      <c r="E741" s="1" t="s">
         <v>1818</v>
-      </c>
-      <c r="E741" s="1" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>808</v>
       </c>
       <c r="D742" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E742" s="1" t="s">
         <v>1821</v>
-      </c>
-      <c r="E742" s="1" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>1362</v>
       </c>
       <c r="D743" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E743" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="E743" s="1" t="s">
-        <v>1825</v>
-      </c>
       <c r="F743" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>398</v>
       </c>
       <c r="D744" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E744" s="33" t="s">
         <v>1827</v>
       </c>
-      <c r="E744" s="33" t="s">
+      <c r="F744" s="33" t="s">
         <v>1828</v>
-      </c>
-      <c r="F744" s="33" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C745" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="C745" s="1" t="s">
+      <c r="D745" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="D745" s="1" t="s">
+      <c r="E745" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="E745" s="1" t="s">
+      <c r="F745" s="1" t="s">
         <v>1833</v>
-      </c>
-      <c r="F745" s="1" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E746" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="C746" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D746" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="E746" s="1" t="s">
+      <c r="F746" s="1" t="s">
         <v>1836</v>
-      </c>
-      <c r="F746" s="1" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>401</v>
       </c>
       <c r="D747" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E747" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="E747" s="1" t="s">
+      <c r="F747" s="1" t="s">
         <v>1840</v>
-      </c>
-      <c r="F747" s="1" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
   </sheetData>
